--- a/9 5/ExactModelData.xlsx
+++ b/9 5/ExactModelData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\great\Google Drive\University\2020\Industrial Project 498\Exact Model Implementation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Aaron\Google Drive\University\2020\Industrial Project 498\Exact Model Implementation\9 5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3990C160-C994-4BB1-8A1C-486C483F73AC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CD8B1D7-AACC-46E8-81EF-F74F15D5A932}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -356,31 +356,31 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-90.695378282915883</c:v>
+                  <c:v>-92.303124035969077</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-18.18325582554607</c:v>
+                  <c:v>-17.534874688766124</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>98.95771946888901</c:v>
+                  <c:v>69.592860278442444</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>40.24870651043355</c:v>
+                  <c:v>63.409450807393824</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-5.0562976160313724</c:v>
+                  <c:v>22.874402285612859</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-20.489427768808227</c:v>
+                  <c:v>-33.64033952020138</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>52.195123565734121</c:v>
+                  <c:v>-69.793332998932996</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>28.417784625097696</c:v>
+                  <c:v>80.542184399588535</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-3.0138419565027164</c:v>
+                  <c:v>-79.162657845529097</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0</c:v>
@@ -398,31 +398,31 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-45.611558697826865</c:v>
+                  <c:v>68.587028499030296</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-70.129807668129502</c:v>
+                  <c:v>43.198209897903411</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>84.528398963783786</c:v>
+                  <c:v>93.142057208563685</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>41.854371217320164</c:v>
+                  <c:v>-42.264399908385045</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44.431729088740269</c:v>
+                  <c:v>51.863391937053152</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-0.41490176856223115</c:v>
+                  <c:v>-86.20887666832806</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-1.2520820814511069</c:v>
+                  <c:v>59.523984686539336</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>33.773329464718643</c:v>
+                  <c:v>-17.495571282325798</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-12.129673150252174</c:v>
+                  <c:v>31.562933781457133</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0</c:v>
@@ -1496,35 +1496,35 @@
   <dimension ref="A1:U16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" style="8" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="12.88671875" customWidth="1"/>
-    <col min="9" max="9" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.33203125" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="12.85546875" customWidth="1"/>
+    <col min="9" max="9" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.28515625" customWidth="1"/>
     <col min="15" max="15" width="24" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.44140625" customWidth="1"/>
-    <col min="21" max="21" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="5.44140625" customWidth="1"/>
-    <col min="23" max="23" width="5.5546875" customWidth="1"/>
-    <col min="24" max="24" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.42578125" customWidth="1"/>
+    <col min="21" max="21" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="5.42578125" customWidth="1"/>
+    <col min="23" max="23" width="5.5703125" customWidth="1"/>
+    <col min="24" max="24" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>33</v>
       </c>
@@ -1577,25 +1577,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
       <c r="B2" t="str">
         <f ca="1">OFFSET($R$1,RANDBETWEEN(1,$P$8),0)</f>
-        <v>8 metre</v>
+        <v>11 metre</v>
       </c>
       <c r="C2" cm="1">
         <f t="array" aca="1" ref="C2:E2" ca="1">_xlfn.XLOOKUP(B2,OFFSET($R$2,0,0,$P$8,1),OFFSET($S$2,0,0,$P$8,3))</f>
-        <v>1.4328327844674147</v>
+        <v>0.76986257628272314</v>
       </c>
       <c r="D2" s="8">
         <f ca="1"/>
-        <v>7.1061160460545825</v>
+        <v>11.910517994870387</v>
       </c>
       <c r="E2" s="2">
         <f ca="1"/>
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="F2" t="s">
         <v>9</v>
@@ -1615,9 +1615,8 @@
       <c r="K2">
         <v>24</v>
       </c>
-      <c r="L2" cm="1">
-        <f t="array" aca="1" ref="L2:L11" ca="1">_xlfn.RANDARRAY(P2+1,1,P7,P6,FALSE)</f>
-        <v>1.9989372138363742E-2</v>
+      <c r="L2">
+        <v>0</v>
       </c>
       <c r="O2" s="1" t="s">
         <v>16</v>
@@ -1630,50 +1629,50 @@
       </c>
       <c r="S2" cm="1">
         <f t="array" aca="1" ref="S2:S4" ca="1">_xlfn.RANDARRAY(P8,1,P10,P9,FALSE)</f>
-        <v>0.96997489686971883</v>
+        <v>0.97597635983367947</v>
       </c>
       <c r="T2" cm="1">
         <f t="array" aca="1" ref="T2:T4" ca="1">_xlfn.RANDARRAY(P8,1,P12,P11,FALSE)</f>
-        <v>10.479115079660669</v>
+        <v>10.174091547832749</v>
       </c>
       <c r="U2">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
       <c r="B3" t="str">
         <f ca="1">OFFSET($R$1,RANDBETWEEN(1,$P$8),0)</f>
-        <v>8 metre</v>
+        <v>11 metre</v>
       </c>
       <c r="C3" cm="1">
         <f t="array" aca="1" ref="C3:E3" ca="1">_xlfn.XLOOKUP(B3,OFFSET($R$2,0,0,$P$8,1),OFFSET($S$2,0,0,$P$8,3))</f>
-        <v>1.4328327844674147</v>
+        <v>0.76986257628272314</v>
       </c>
       <c r="D3" s="8">
         <f ca="1"/>
-        <v>7.1061160460545825</v>
+        <v>11.910517994870387</v>
       </c>
       <c r="E3" s="2">
         <f ca="1"/>
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3" cm="1">
         <f t="array" aca="1" ref="G3:H11" ca="1">_xlfn.RANDARRAY(P2,2,P4,P3,FALSE)</f>
-        <v>-90.695378282915883</v>
+        <v>-92.303124035969077</v>
       </c>
       <c r="H3">
         <f ca="1"/>
-        <v>-45.611558697826865</v>
+        <v>68.587028499030296</v>
       </c>
       <c r="I3" cm="1">
         <f t="array" aca="1" ref="I3:I11" ca="1">_xlfn.RANDARRAY(P2,1,1,ROUNDUP((P14/P2),0),TRUE)</f>
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="J3">
         <f ca="1">IF(RAND()&lt;$P$5,RANDBETWEEN(5,23), 0)</f>
@@ -1683,9 +1682,9 @@
         <f ca="1">IF(J3=0,24,J3+1)</f>
         <v>24</v>
       </c>
-      <c r="L3">
-        <f ca="1"/>
-        <v>1.7195436718003027E-2</v>
+      <c r="L3" cm="1">
+        <f t="array" aca="1" ref="L3:L11" ca="1">_xlfn.RANDARRAY(P2,1,P7,P6,FALSE)</f>
+        <v>0.10347425370133467</v>
       </c>
       <c r="O3" s="1" t="s">
         <v>14</v>
@@ -1698,50 +1697,50 @@
       </c>
       <c r="S3">
         <f ca="1"/>
-        <v>1.4328327844674147</v>
+        <v>1.1544648533903015</v>
       </c>
       <c r="T3">
         <f ca="1"/>
-        <v>7.1061160460545825</v>
+        <v>8.9753490910616964</v>
       </c>
       <c r="U3">
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>34</v>
       </c>
       <c r="B4" t="str">
         <f ca="1">OFFSET($R$1,RANDBETWEEN(1,$P$8),0)</f>
-        <v>Rigid</v>
+        <v>8 metre</v>
       </c>
       <c r="C4" cm="1">
         <f t="array" aca="1" ref="C4:E4" ca="1">_xlfn.XLOOKUP(B4,OFFSET($R$2,0,0,$P$8,1),OFFSET($S$2,0,0,$P$8,3))</f>
-        <v>0.96997489686971883</v>
+        <v>1.1544648533903015</v>
       </c>
       <c r="D4" s="8">
         <f ca="1"/>
-        <v>10.479115079660669</v>
+        <v>8.9753490910616964</v>
       </c>
       <c r="E4" s="2">
         <f ca="1"/>
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="F4">
         <v>2</v>
       </c>
       <c r="G4">
         <f ca="1"/>
-        <v>-18.18325582554607</v>
+        <v>-17.534874688766124</v>
       </c>
       <c r="H4">
         <f ca="1"/>
-        <v>-70.129807668129502</v>
+        <v>43.198209897903411</v>
       </c>
       <c r="I4">
         <f ca="1"/>
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="J4">
         <f t="shared" ref="J4:J11" ca="1" si="0">IF(RAND()&lt;$P$5,RANDBETWEEN(5,23), 0)</f>
@@ -1753,7 +1752,7 @@
       </c>
       <c r="L4">
         <f ca="1"/>
-        <v>2.8413427524884682E-2</v>
+        <v>2.3827347224399859E-2</v>
       </c>
       <c r="O4" s="1" t="s">
         <v>15</v>
@@ -1766,17 +1765,17 @@
       </c>
       <c r="S4">
         <f ca="1"/>
-        <v>0.80414061658691094</v>
+        <v>0.76986257628272314</v>
       </c>
       <c r="T4">
         <f ca="1"/>
-        <v>11.975104039060236</v>
+        <v>11.910517994870387</v>
       </c>
       <c r="U4">
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>35</v>
       </c>
@@ -1786,11 +1785,11 @@
       </c>
       <c r="C5" cm="1">
         <f t="array" aca="1" ref="C5:E5" ca="1">_xlfn.XLOOKUP(B5,OFFSET($R$2,0,0,$P$8,1),OFFSET($S$2,0,0,$P$8,3))</f>
-        <v>0.96997489686971883</v>
+        <v>0.97597635983367947</v>
       </c>
       <c r="D5" s="8">
         <f ca="1"/>
-        <v>10.479115079660669</v>
+        <v>10.174091547832749</v>
       </c>
       <c r="E5" s="2">
         <f ca="1"/>
@@ -1801,15 +1800,15 @@
       </c>
       <c r="G5">
         <f ca="1"/>
-        <v>98.95771946888901</v>
+        <v>69.592860278442444</v>
       </c>
       <c r="H5">
         <f ca="1"/>
-        <v>84.528398963783786</v>
+        <v>93.142057208563685</v>
       </c>
       <c r="I5">
         <f ca="1"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J5">
         <f t="shared" ca="1" si="0"/>
@@ -1821,7 +1820,7 @@
       </c>
       <c r="L5">
         <f ca="1"/>
-        <v>7.0893672630453597E-2</v>
+        <v>4.9077765480416868E-2</v>
       </c>
       <c r="O5" s="1" t="s">
         <v>23</v>
@@ -1832,40 +1831,40 @@
       </c>
       <c r="R5" s="6"/>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>36</v>
       </c>
       <c r="B6" t="str">
         <f ca="1">OFFSET($R$1,RANDBETWEEN(1,$P$8),0)</f>
-        <v>8 metre</v>
+        <v>11 metre</v>
       </c>
       <c r="C6" cm="1">
         <f t="array" aca="1" ref="C6:E6" ca="1">_xlfn.XLOOKUP(B6,OFFSET($R$2,0,0,$P$8,1),OFFSET($S$2,0,0,$P$8,3))</f>
-        <v>1.4328327844674147</v>
+        <v>0.76986257628272314</v>
       </c>
       <c r="D6" s="8">
         <f ca="1"/>
-        <v>7.1061160460545825</v>
+        <v>11.910517994870387</v>
       </c>
       <c r="E6" s="2">
         <f ca="1"/>
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="F6">
         <v>4</v>
       </c>
       <c r="G6">
         <f ca="1"/>
-        <v>40.24870651043355</v>
+        <v>63.409450807393824</v>
       </c>
       <c r="H6">
         <f ca="1"/>
-        <v>41.854371217320164</v>
+        <v>-42.264399908385045</v>
       </c>
       <c r="I6">
         <f ca="1"/>
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="J6">
         <f t="shared" ca="1" si="0"/>
@@ -1877,7 +1876,7 @@
       </c>
       <c r="L6">
         <f ca="1"/>
-        <v>8.722616079771181E-2</v>
+        <v>0.13207536157664881</v>
       </c>
       <c r="O6" s="1" t="s">
         <v>25</v>
@@ -1888,33 +1887,33 @@
       </c>
       <c r="R6" s="6"/>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="F7">
         <v>5</v>
       </c>
       <c r="G7">
         <f ca="1"/>
-        <v>-5.0562976160313724</v>
+        <v>22.874402285612859</v>
       </c>
       <c r="H7">
         <f ca="1"/>
-        <v>44.431729088740269</v>
+        <v>51.863391937053152</v>
       </c>
       <c r="I7">
         <f ca="1"/>
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="J7">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="K7">
         <f t="shared" ref="K7" ca="1" si="2">IF(J7=0,24,J7+1)</f>
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="L7">
         <f ca="1"/>
-        <v>2.5410739596571558E-2</v>
+        <v>0.12388201282478128</v>
       </c>
       <c r="O7" s="1" t="s">
         <v>24</v>
@@ -1924,33 +1923,33 @@
         <v>1.6666666666666666E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="F8">
         <v>6</v>
       </c>
       <c r="G8">
         <f ca="1"/>
-        <v>-20.489427768808227</v>
+        <v>-33.64033952020138</v>
       </c>
       <c r="H8">
         <f ca="1"/>
-        <v>-0.41490176856223115</v>
+        <v>-86.20887666832806</v>
       </c>
       <c r="I8">
         <f ca="1"/>
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="J8">
         <f t="shared" ca="1" si="0"/>
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="K8">
         <f t="shared" ref="K8:K11" ca="1" si="3">IF(J8=0,24,J8+1)</f>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L8">
         <f ca="1"/>
-        <v>0.14867128800331322</v>
+        <v>9.7647624803435334E-2</v>
       </c>
       <c r="O8" s="1" t="s">
         <v>32</v>
@@ -1959,21 +1958,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="F9">
         <v>7</v>
       </c>
       <c r="G9">
         <f ca="1"/>
-        <v>52.195123565734121</v>
+        <v>-69.793332998932996</v>
       </c>
       <c r="H9">
         <f ca="1"/>
-        <v>-1.2520820814511069</v>
+        <v>59.523984686539336</v>
       </c>
       <c r="I9">
         <f ca="1"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J9">
         <f t="shared" ca="1" si="0"/>
@@ -1985,7 +1984,7 @@
       </c>
       <c r="L9">
         <f ca="1"/>
-        <v>0.12795610459872153</v>
+        <v>0.1527429086135719</v>
       </c>
       <c r="O9" s="1" t="s">
         <v>20</v>
@@ -1994,21 +1993,21 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="F10">
         <v>8</v>
       </c>
       <c r="G10">
         <f ca="1"/>
-        <v>28.417784625097696</v>
+        <v>80.542184399588535</v>
       </c>
       <c r="H10">
         <f ca="1"/>
-        <v>33.773329464718643</v>
+        <v>-17.495571282325798</v>
       </c>
       <c r="I10">
         <f ca="1"/>
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="J10">
         <f t="shared" ca="1" si="0"/>
@@ -2020,7 +2019,7 @@
       </c>
       <c r="L10">
         <f ca="1"/>
-        <v>0.12853436410013797</v>
+        <v>7.6418706637919082E-2</v>
       </c>
       <c r="O10" s="1" t="s">
         <v>19</v>
@@ -2029,21 +2028,21 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="F11">
         <v>9</v>
       </c>
       <c r="G11">
         <f ca="1"/>
-        <v>-3.0138419565027164</v>
+        <v>-79.162657845529097</v>
       </c>
       <c r="H11">
         <f ca="1"/>
-        <v>-12.129673150252174</v>
+        <v>31.562933781457133</v>
       </c>
       <c r="I11">
         <f ca="1"/>
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="J11">
         <f t="shared" ca="1" si="0"/>
@@ -2055,7 +2054,7 @@
       </c>
       <c r="L11">
         <f ca="1"/>
-        <v>0.12600120217412428</v>
+        <v>5.8863303849863297E-2</v>
       </c>
       <c r="O11" s="1" t="s">
         <v>21</v>
@@ -2064,7 +2063,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="F12" t="s">
         <v>11</v>
       </c>
@@ -2093,28 +2092,28 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="O14" s="1" t="s">
         <v>18</v>
       </c>
       <c r="P14">
         <f ca="1">SUM(E:E)</f>
-        <v>98</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="O15" s="1" t="s">
         <v>26</v>
       </c>
       <c r="P15">
         <f ca="1">SUM(I:I)</f>
-        <v>57</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="P16" s="5">
         <f ca="1">P15/P14</f>
-        <v>0.58163265306122447</v>
+        <v>0.71875</v>
       </c>
     </row>
   </sheetData>
@@ -2136,58 +2135,58 @@
       <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1">
         <f>SQRT(('1D'!$G$2-'1D'!$G2)^2+('1D'!$H$2-'1D'!$H2)^2)</f>
         <v>0</v>
       </c>
       <c r="B1">
         <f ca="1">SQRT(('1D'!$G$3-'1D'!$G2)^2+('1D'!$H$3-'1D'!$H2)^2)</f>
-        <v>101.51879593812426</v>
+        <v>114.99585725201707</v>
       </c>
       <c r="C1">
         <f ca="1">SQRT(('1D'!$G$4-'1D'!$G2)^2+('1D'!$H$4-'1D'!$H2)^2)</f>
-        <v>72.44874544107779</v>
+        <v>46.621423924351035</v>
       </c>
       <c r="D1">
         <f ca="1">SQRT(('1D'!$G$5-'1D'!$G2)^2+('1D'!$H$5-'1D'!$H2)^2)</f>
-        <v>130.14484420776699</v>
+        <v>116.26955329224484</v>
       </c>
       <c r="E1">
         <f ca="1">SQRT(('1D'!$G$6-'1D'!$G2)^2+('1D'!$H$6-'1D'!$H2)^2)</f>
-        <v>58.066744060264433</v>
+        <v>76.203923464026403</v>
       </c>
       <c r="F1">
         <f ca="1">SQRT(('1D'!$G$7-'1D'!$G2)^2+('1D'!$H$7-'1D'!$H2)^2)</f>
-        <v>44.718505066662196</v>
+        <v>56.683769309569037</v>
       </c>
       <c r="G1">
         <f ca="1">SQRT(('1D'!$G$8-'1D'!$G2)^2+('1D'!$H$8-'1D'!$H2)^2)</f>
-        <v>20.493628126097285</v>
+        <v>92.539952774190567</v>
       </c>
       <c r="H1">
         <f ca="1">SQRT(('1D'!$G$9-'1D'!$G2)^2+('1D'!$H$9-'1D'!$H2)^2)</f>
-        <v>52.210139183696349</v>
+        <v>91.729025308586586</v>
       </c>
       <c r="I1">
         <f ca="1">SQRT(('1D'!$G$10-'1D'!$G2)^2+('1D'!$H$10-'1D'!$H2)^2)</f>
-        <v>44.138512278178013</v>
+        <v>82.420497950159614</v>
       </c>
       <c r="J1">
         <f ca="1">SQRT(('1D'!$G$11-'1D'!$G2)^2+('1D'!$H$11-'1D'!$H2)^2)</f>
-        <v>12.498488471440242</v>
+        <v>85.222914677104058</v>
       </c>
       <c r="K1">
         <f>SQRT(('1D'!$G$12-'1D'!$G2)^2+('1D'!$H$12-'1D'!$H2)^2)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2">
         <f ca="1">SQRT(('1D'!$G$2-'1D'!$G3)^2+('1D'!$H$2-'1D'!$H3)^2)</f>
-        <v>101.51879593812426</v>
+        <v>114.99585725201707</v>
       </c>
       <c r="B2">
         <f ca="1">SQRT(('1D'!$G$3-'1D'!$G3)^2+('1D'!$H$3-'1D'!$H3)^2)</f>
@@ -2195,49 +2194,49 @@
       </c>
       <c r="C2">
         <f ca="1">SQRT(('1D'!$G$4-'1D'!$G3)^2+('1D'!$H$4-'1D'!$H3)^2)</f>
-        <v>76.545100665178708</v>
+        <v>78.96127671464312</v>
       </c>
       <c r="D2">
         <f ca="1">SQRT(('1D'!$G$5-'1D'!$G3)^2+('1D'!$H$5-'1D'!$H3)^2)</f>
-        <v>230.01023035295947</v>
+        <v>163.74754707188194</v>
       </c>
       <c r="E2">
         <f ca="1">SQRT(('1D'!$G$6-'1D'!$G3)^2+('1D'!$H$6-'1D'!$H3)^2)</f>
-        <v>157.4694962152648</v>
+        <v>191.13985755020911</v>
       </c>
       <c r="F2">
         <f ca="1">SQRT(('1D'!$G$7-'1D'!$G3)^2+('1D'!$H$7-'1D'!$H3)^2)</f>
-        <v>124.26522366649368</v>
+        <v>116.38531947550686</v>
       </c>
       <c r="G2">
         <f ca="1">SQRT(('1D'!$G$8-'1D'!$G3)^2+('1D'!$H$8-'1D'!$H3)^2)</f>
-        <v>83.496187249304853</v>
+        <v>165.53880071972611</v>
       </c>
       <c r="H2">
         <f ca="1">SQRT(('1D'!$G$9-'1D'!$G3)^2+('1D'!$H$9-'1D'!$H3)^2)</f>
-        <v>149.61770845804929</v>
+        <v>24.265808366468249</v>
       </c>
       <c r="I2">
         <f ca="1">SQRT(('1D'!$G$10-'1D'!$G3)^2+('1D'!$H$10-'1D'!$H3)^2)</f>
-        <v>143.14295667803862</v>
+        <v>193.09509220407489</v>
       </c>
       <c r="J2">
         <f ca="1">SQRT(('1D'!$G$11-'1D'!$G3)^2+('1D'!$H$11-'1D'!$H3)^2)</f>
-        <v>93.85674441605677</v>
+        <v>39.286835471413646</v>
       </c>
       <c r="K2">
         <f ca="1">SQRT(('1D'!$G$12-'1D'!$G3)^2+('1D'!$H$12-'1D'!$H3)^2)</f>
-        <v>101.51879593812426</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+        <v>114.99585725201707</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
         <f ca="1">SQRT(('1D'!$G$2-'1D'!$G4)^2+('1D'!$H$2-'1D'!$H4)^2)</f>
-        <v>72.44874544107779</v>
+        <v>46.621423924351035</v>
       </c>
       <c r="B3">
         <f ca="1">SQRT(('1D'!$G$3-'1D'!$G4)^2+('1D'!$H$3-'1D'!$H4)^2)</f>
-        <v>76.545100665178708</v>
+        <v>78.96127671464312</v>
       </c>
       <c r="C3">
         <f ca="1">SQRT(('1D'!$G$4-'1D'!$G4)^2+('1D'!$H$4-'1D'!$H4)^2)</f>
@@ -2245,49 +2244,49 @@
       </c>
       <c r="D3">
         <f ca="1">SQRT(('1D'!$G$5-'1D'!$G4)^2+('1D'!$H$5-'1D'!$H4)^2)</f>
-        <v>194.0133216341884</v>
+        <v>100.42723776300275</v>
       </c>
       <c r="E3">
         <f ca="1">SQRT(('1D'!$G$6-'1D'!$G4)^2+('1D'!$H$6-'1D'!$H4)^2)</f>
-        <v>126.31211558311314</v>
+        <v>117.71083851935725</v>
       </c>
       <c r="F3">
         <f ca="1">SQRT(('1D'!$G$7-'1D'!$G4)^2+('1D'!$H$7-'1D'!$H4)^2)</f>
-        <v>115.31115616422363</v>
+        <v>41.327896696585938</v>
       </c>
       <c r="G3">
         <f ca="1">SQRT(('1D'!$G$8-'1D'!$G4)^2+('1D'!$H$8-'1D'!$H4)^2)</f>
-        <v>69.753039601277649</v>
+        <v>130.40544486714012</v>
       </c>
       <c r="H3">
         <f ca="1">SQRT(('1D'!$G$9-'1D'!$G4)^2+('1D'!$H$9-'1D'!$H4)^2)</f>
-        <v>98.474653427857987</v>
+        <v>54.749222710507127</v>
       </c>
       <c r="I3">
         <f ca="1">SQRT(('1D'!$G$10-'1D'!$G4)^2+('1D'!$H$10-'1D'!$H4)^2)</f>
-        <v>113.87501427938432</v>
+        <v>115.3379581637119</v>
       </c>
       <c r="J3">
         <f ca="1">SQRT(('1D'!$G$11-'1D'!$G4)^2+('1D'!$H$11-'1D'!$H4)^2)</f>
-        <v>59.951036031266298</v>
+        <v>62.716531370308921</v>
       </c>
       <c r="K3">
         <f ca="1">SQRT(('1D'!$G$12-'1D'!$G4)^2+('1D'!$H$12-'1D'!$H4)^2)</f>
-        <v>72.44874544107779</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+        <v>46.621423924351035</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
         <f ca="1">SQRT(('1D'!$G$2-'1D'!$G5)^2+('1D'!$H$2-'1D'!$H5)^2)</f>
-        <v>130.14484420776699</v>
+        <v>116.26955329224484</v>
       </c>
       <c r="B4">
         <f ca="1">SQRT(('1D'!$G$3-'1D'!$G5)^2+('1D'!$H$3-'1D'!$H5)^2)</f>
-        <v>230.01023035295947</v>
+        <v>163.74754707188194</v>
       </c>
       <c r="C4">
         <f ca="1">SQRT(('1D'!$G$4-'1D'!$G5)^2+('1D'!$H$4-'1D'!$H5)^2)</f>
-        <v>194.0133216341884</v>
+        <v>100.42723776300275</v>
       </c>
       <c r="D4">
         <f ca="1">SQRT(('1D'!$G$5-'1D'!$G5)^2+('1D'!$H$5-'1D'!$H5)^2)</f>
@@ -2295,49 +2294,49 @@
       </c>
       <c r="E4">
         <f ca="1">SQRT(('1D'!$G$6-'1D'!$G5)^2+('1D'!$H$6-'1D'!$H5)^2)</f>
-        <v>72.579755074414777</v>
+        <v>135.54756796656562</v>
       </c>
       <c r="F4">
         <f ca="1">SQRT(('1D'!$G$7-'1D'!$G5)^2+('1D'!$H$7-'1D'!$H5)^2)</f>
-        <v>111.47492401975582</v>
+        <v>62.34214083447241</v>
       </c>
       <c r="G4">
         <f ca="1">SQRT(('1D'!$G$8-'1D'!$G5)^2+('1D'!$H$8-'1D'!$H5)^2)</f>
-        <v>146.57075193410824</v>
+        <v>206.93924476323943</v>
       </c>
       <c r="H4">
         <f ca="1">SQRT(('1D'!$G$9-'1D'!$G5)^2+('1D'!$H$9-'1D'!$H5)^2)</f>
-        <v>97.698676060393268</v>
+        <v>143.38300344341357</v>
       </c>
       <c r="I4">
         <f ca="1">SQRT(('1D'!$G$10-'1D'!$G5)^2+('1D'!$H$10-'1D'!$H5)^2)</f>
-        <v>86.902010837616743</v>
+        <v>111.17811177024906</v>
       </c>
       <c r="J4">
         <f ca="1">SQRT(('1D'!$G$11-'1D'!$G5)^2+('1D'!$H$11-'1D'!$H5)^2)</f>
-        <v>140.50260582755971</v>
+        <v>160.99749257172314</v>
       </c>
       <c r="K4">
         <f ca="1">SQRT(('1D'!$G$12-'1D'!$G5)^2+('1D'!$H$12-'1D'!$H5)^2)</f>
-        <v>130.14484420776699</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+        <v>116.26955329224484</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
         <f ca="1">SQRT(('1D'!$G$2-'1D'!$G6)^2+('1D'!$H$2-'1D'!$H6)^2)</f>
-        <v>58.066744060264433</v>
+        <v>76.203923464026403</v>
       </c>
       <c r="B5">
         <f ca="1">SQRT(('1D'!$G$3-'1D'!$G6)^2+('1D'!$H$3-'1D'!$H6)^2)</f>
-        <v>157.4694962152648</v>
+        <v>191.13985755020911</v>
       </c>
       <c r="C5">
         <f ca="1">SQRT(('1D'!$G$4-'1D'!$G6)^2+('1D'!$H$4-'1D'!$H6)^2)</f>
-        <v>126.31211558311314</v>
+        <v>117.71083851935725</v>
       </c>
       <c r="D5">
         <f ca="1">SQRT(('1D'!$G$5-'1D'!$G6)^2+('1D'!$H$5-'1D'!$H6)^2)</f>
-        <v>72.579755074414777</v>
+        <v>135.54756796656562</v>
       </c>
       <c r="E5">
         <f ca="1">SQRT(('1D'!$G$6-'1D'!$G6)^2+('1D'!$H$6-'1D'!$H6)^2)</f>
@@ -2345,49 +2344,49 @@
       </c>
       <c r="F5">
         <f ca="1">SQRT(('1D'!$G$7-'1D'!$G6)^2+('1D'!$H$7-'1D'!$H6)^2)</f>
-        <v>45.378256604858393</v>
+        <v>102.48478597509622</v>
       </c>
       <c r="G5">
         <f ca="1">SQRT(('1D'!$G$8-'1D'!$G6)^2+('1D'!$H$8-'1D'!$H6)^2)</f>
-        <v>73.998732384266233</v>
+        <v>106.53534080452064</v>
       </c>
       <c r="H5">
         <f ca="1">SQRT(('1D'!$G$9-'1D'!$G6)^2+('1D'!$H$9-'1D'!$H6)^2)</f>
-        <v>44.731232896694507</v>
+        <v>167.64204977331696</v>
       </c>
       <c r="I5">
         <f ca="1">SQRT(('1D'!$G$10-'1D'!$G6)^2+('1D'!$H$10-'1D'!$H6)^2)</f>
-        <v>14.327384564679207</v>
+        <v>30.116862915121306</v>
       </c>
       <c r="J5">
         <f ca="1">SQRT(('1D'!$G$11-'1D'!$G6)^2+('1D'!$H$11-'1D'!$H6)^2)</f>
-        <v>69.1803812228151</v>
+        <v>160.55304844658716</v>
       </c>
       <c r="K5">
         <f ca="1">SQRT(('1D'!$G$12-'1D'!$G6)^2+('1D'!$H$12-'1D'!$H6)^2)</f>
-        <v>58.066744060264433</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+        <v>76.203923464026403</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
         <f ca="1">SQRT(('1D'!$G$2-'1D'!$G7)^2+('1D'!$H$2-'1D'!$H7)^2)</f>
-        <v>44.718505066662196</v>
+        <v>56.683769309569037</v>
       </c>
       <c r="B6">
         <f ca="1">SQRT(('1D'!$G$3-'1D'!$G7)^2+('1D'!$H$3-'1D'!$H7)^2)</f>
-        <v>124.26522366649368</v>
+        <v>116.38531947550686</v>
       </c>
       <c r="C6">
         <f ca="1">SQRT(('1D'!$G$4-'1D'!$G7)^2+('1D'!$H$4-'1D'!$H7)^2)</f>
-        <v>115.31115616422363</v>
+        <v>41.327896696585938</v>
       </c>
       <c r="D6">
         <f ca="1">SQRT(('1D'!$G$5-'1D'!$G7)^2+('1D'!$H$5-'1D'!$H7)^2)</f>
-        <v>111.47492401975582</v>
+        <v>62.34214083447241</v>
       </c>
       <c r="E6">
         <f ca="1">SQRT(('1D'!$G$6-'1D'!$G7)^2+('1D'!$H$6-'1D'!$H7)^2)</f>
-        <v>45.378256604858393</v>
+        <v>102.48478597509622</v>
       </c>
       <c r="F6">
         <f ca="1">SQRT(('1D'!$G$7-'1D'!$G7)^2+('1D'!$H$7-'1D'!$H7)^2)</f>
@@ -2395,49 +2394,49 @@
       </c>
       <c r="G6">
         <f ca="1">SQRT(('1D'!$G$8-'1D'!$G7)^2+('1D'!$H$8-'1D'!$H7)^2)</f>
-        <v>47.427858960359018</v>
+        <v>149.19070815306961</v>
       </c>
       <c r="H6">
         <f ca="1">SQRT(('1D'!$G$9-'1D'!$G7)^2+('1D'!$H$9-'1D'!$H7)^2)</f>
-        <v>73.244356986498346</v>
+        <v>92.98383646656093</v>
       </c>
       <c r="I6">
         <f ca="1">SQRT(('1D'!$G$10-'1D'!$G7)^2+('1D'!$H$10-'1D'!$H7)^2)</f>
-        <v>35.129982414331167</v>
+        <v>90.201102392443829</v>
       </c>
       <c r="J6">
         <f ca="1">SQRT(('1D'!$G$11-'1D'!$G7)^2+('1D'!$H$11-'1D'!$H7)^2)</f>
-        <v>56.598267185155414</v>
+        <v>104.03686962578884</v>
       </c>
       <c r="K6">
         <f ca="1">SQRT(('1D'!$G$12-'1D'!$G7)^2+('1D'!$H$12-'1D'!$H7)^2)</f>
-        <v>44.718505066662196</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+        <v>56.683769309569037</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
         <f ca="1">SQRT(('1D'!$G$2-'1D'!$G8)^2+('1D'!$H$2-'1D'!$H8)^2)</f>
-        <v>20.493628126097285</v>
+        <v>92.539952774190567</v>
       </c>
       <c r="B7">
         <f ca="1">SQRT(('1D'!$G$3-'1D'!$G8)^2+('1D'!$H$3-'1D'!$H8)^2)</f>
-        <v>83.496187249304853</v>
+        <v>165.53880071972611</v>
       </c>
       <c r="C7">
         <f ca="1">SQRT(('1D'!$G$4-'1D'!$G8)^2+('1D'!$H$4-'1D'!$H8)^2)</f>
-        <v>69.753039601277649</v>
+        <v>130.40544486714012</v>
       </c>
       <c r="D7">
         <f ca="1">SQRT(('1D'!$G$5-'1D'!$G8)^2+('1D'!$H$5-'1D'!$H8)^2)</f>
-        <v>146.57075193410824</v>
+        <v>206.93924476323943</v>
       </c>
       <c r="E7">
         <f ca="1">SQRT(('1D'!$G$6-'1D'!$G8)^2+('1D'!$H$6-'1D'!$H8)^2)</f>
-        <v>73.998732384266233</v>
+        <v>106.53534080452064</v>
       </c>
       <c r="F7">
         <f ca="1">SQRT(('1D'!$G$7-'1D'!$G8)^2+('1D'!$H$7-'1D'!$H8)^2)</f>
-        <v>47.427858960359018</v>
+        <v>149.19070815306961</v>
       </c>
       <c r="G7">
         <f ca="1">SQRT(('1D'!$G$8-'1D'!$G8)^2+('1D'!$H$8-'1D'!$H8)^2)</f>
@@ -2445,49 +2444,49 @@
       </c>
       <c r="H7">
         <f ca="1">SQRT(('1D'!$G$9-'1D'!$G8)^2+('1D'!$H$9-'1D'!$H8)^2)</f>
-        <v>72.689372494058659</v>
+        <v>150.15027744280133</v>
       </c>
       <c r="I7">
         <f ca="1">SQRT(('1D'!$G$10-'1D'!$G8)^2+('1D'!$H$10-'1D'!$H8)^2)</f>
-        <v>59.672025095541265</v>
+        <v>133.26352503878698</v>
       </c>
       <c r="J7">
         <f ca="1">SQRT(('1D'!$G$11-'1D'!$G8)^2+('1D'!$H$11-'1D'!$H8)^2)</f>
-        <v>21.038820499460403</v>
+        <v>126.26353710526487</v>
       </c>
       <c r="K7">
         <f ca="1">SQRT(('1D'!$G$12-'1D'!$G8)^2+('1D'!$H$12-'1D'!$H8)^2)</f>
-        <v>20.493628126097285</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+        <v>92.539952774190567</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8">
         <f ca="1">SQRT(('1D'!$G$2-'1D'!$G9)^2+('1D'!$H$2-'1D'!$H9)^2)</f>
-        <v>52.210139183696349</v>
+        <v>91.729025308586586</v>
       </c>
       <c r="B8">
         <f ca="1">SQRT(('1D'!$G$3-'1D'!$G9)^2+('1D'!$H$3-'1D'!$H9)^2)</f>
-        <v>149.61770845804929</v>
+        <v>24.265808366468249</v>
       </c>
       <c r="C8">
         <f ca="1">SQRT(('1D'!$G$4-'1D'!$G9)^2+('1D'!$H$4-'1D'!$H9)^2)</f>
-        <v>98.474653427857987</v>
+        <v>54.749222710507127</v>
       </c>
       <c r="D8">
         <f ca="1">SQRT(('1D'!$G$5-'1D'!$G9)^2+('1D'!$H$5-'1D'!$H9)^2)</f>
-        <v>97.698676060393268</v>
+        <v>143.38300344341357</v>
       </c>
       <c r="E8">
         <f ca="1">SQRT(('1D'!$G$6-'1D'!$G9)^2+('1D'!$H$6-'1D'!$H9)^2)</f>
-        <v>44.731232896694507</v>
+        <v>167.64204977331696</v>
       </c>
       <c r="F8">
         <f ca="1">SQRT(('1D'!$G$7-'1D'!$G9)^2+('1D'!$H$7-'1D'!$H9)^2)</f>
-        <v>73.244356986498346</v>
+        <v>92.98383646656093</v>
       </c>
       <c r="G8">
         <f ca="1">SQRT(('1D'!$G$8-'1D'!$G9)^2+('1D'!$H$8-'1D'!$H9)^2)</f>
-        <v>72.689372494058659</v>
+        <v>150.15027744280133</v>
       </c>
       <c r="H8">
         <f ca="1">SQRT(('1D'!$G$9-'1D'!$G9)^2+('1D'!$H$9-'1D'!$H9)^2)</f>
@@ -2495,49 +2494,49 @@
       </c>
       <c r="I8">
         <f ca="1">SQRT(('1D'!$G$10-'1D'!$G9)^2+('1D'!$H$10-'1D'!$H9)^2)</f>
-        <v>42.333689906225594</v>
+        <v>168.91648762960446</v>
       </c>
       <c r="J8">
         <f ca="1">SQRT(('1D'!$G$11-'1D'!$G9)^2+('1D'!$H$11-'1D'!$H9)^2)</f>
-        <v>56.270346200246514</v>
+        <v>29.489059255894233</v>
       </c>
       <c r="K8">
         <f ca="1">SQRT(('1D'!$G$12-'1D'!$G9)^2+('1D'!$H$12-'1D'!$H9)^2)</f>
-        <v>52.210139183696349</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+        <v>91.729025308586586</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9">
         <f ca="1">SQRT(('1D'!$G$2-'1D'!$G10)^2+('1D'!$H$2-'1D'!$H10)^2)</f>
-        <v>44.138512278178013</v>
+        <v>82.420497950159614</v>
       </c>
       <c r="B9">
         <f ca="1">SQRT(('1D'!$G$3-'1D'!$G10)^2+('1D'!$H$3-'1D'!$H10)^2)</f>
-        <v>143.14295667803862</v>
+        <v>193.09509220407489</v>
       </c>
       <c r="C9">
         <f ca="1">SQRT(('1D'!$G$4-'1D'!$G10)^2+('1D'!$H$4-'1D'!$H10)^2)</f>
-        <v>113.87501427938432</v>
+        <v>115.3379581637119</v>
       </c>
       <c r="D9">
         <f ca="1">SQRT(('1D'!$G$5-'1D'!$G10)^2+('1D'!$H$5-'1D'!$H10)^2)</f>
-        <v>86.902010837616743</v>
+        <v>111.17811177024906</v>
       </c>
       <c r="E9">
         <f ca="1">SQRT(('1D'!$G$6-'1D'!$G10)^2+('1D'!$H$6-'1D'!$H10)^2)</f>
-        <v>14.327384564679207</v>
+        <v>30.116862915121306</v>
       </c>
       <c r="F9">
         <f ca="1">SQRT(('1D'!$G$7-'1D'!$G10)^2+('1D'!$H$7-'1D'!$H10)^2)</f>
-        <v>35.129982414331167</v>
+        <v>90.201102392443829</v>
       </c>
       <c r="G9">
         <f ca="1">SQRT(('1D'!$G$8-'1D'!$G10)^2+('1D'!$H$8-'1D'!$H10)^2)</f>
-        <v>59.672025095541265</v>
+        <v>133.26352503878698</v>
       </c>
       <c r="H9">
         <f ca="1">SQRT(('1D'!$G$9-'1D'!$G10)^2+('1D'!$H$9-'1D'!$H10)^2)</f>
-        <v>42.333689906225594</v>
+        <v>168.91648762960446</v>
       </c>
       <c r="I9">
         <f ca="1">SQRT(('1D'!$G$10-'1D'!$G10)^2+('1D'!$H$10-'1D'!$H10)^2)</f>
@@ -2545,49 +2544,49 @@
       </c>
       <c r="J9">
         <f ca="1">SQRT(('1D'!$G$11-'1D'!$G10)^2+('1D'!$H$11-'1D'!$H10)^2)</f>
-        <v>55.633018960282818</v>
+        <v>167.0699660490512</v>
       </c>
       <c r="K9">
         <f ca="1">SQRT(('1D'!$G$12-'1D'!$G10)^2+('1D'!$H$12-'1D'!$H10)^2)</f>
-        <v>44.138512278178013</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+        <v>82.420497950159614</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10">
         <f ca="1">SQRT(('1D'!$G$2-'1D'!$G11)^2+('1D'!$H$2-'1D'!$H11)^2)</f>
-        <v>12.498488471440242</v>
+        <v>85.222914677104058</v>
       </c>
       <c r="B10">
         <f ca="1">SQRT(('1D'!$G$3-'1D'!$G11)^2+('1D'!$H$3-'1D'!$H11)^2)</f>
-        <v>93.85674441605677</v>
+        <v>39.286835471413646</v>
       </c>
       <c r="C10">
         <f ca="1">SQRT(('1D'!$G$4-'1D'!$G11)^2+('1D'!$H$4-'1D'!$H11)^2)</f>
-        <v>59.951036031266298</v>
+        <v>62.716531370308921</v>
       </c>
       <c r="D10">
         <f ca="1">SQRT(('1D'!$G$5-'1D'!$G11)^2+('1D'!$H$5-'1D'!$H11)^2)</f>
-        <v>140.50260582755971</v>
+        <v>160.99749257172314</v>
       </c>
       <c r="E10">
         <f ca="1">SQRT(('1D'!$G$6-'1D'!$G11)^2+('1D'!$H$6-'1D'!$H11)^2)</f>
-        <v>69.1803812228151</v>
+        <v>160.55304844658716</v>
       </c>
       <c r="F10">
         <f ca="1">SQRT(('1D'!$G$7-'1D'!$G11)^2+('1D'!$H$7-'1D'!$H11)^2)</f>
-        <v>56.598267185155414</v>
+        <v>104.03686962578884</v>
       </c>
       <c r="G10">
         <f ca="1">SQRT(('1D'!$G$8-'1D'!$G11)^2+('1D'!$H$8-'1D'!$H11)^2)</f>
-        <v>21.038820499460403</v>
+        <v>126.26353710526487</v>
       </c>
       <c r="H10">
         <f ca="1">SQRT(('1D'!$G$9-'1D'!$G11)^2+('1D'!$H$9-'1D'!$H11)^2)</f>
-        <v>56.270346200246514</v>
+        <v>29.489059255894233</v>
       </c>
       <c r="I10">
         <f ca="1">SQRT(('1D'!$G$10-'1D'!$G11)^2+('1D'!$H$10-'1D'!$H11)^2)</f>
-        <v>55.633018960282818</v>
+        <v>167.0699660490512</v>
       </c>
       <c r="J10">
         <f ca="1">SQRT(('1D'!$G$11-'1D'!$G11)^2+('1D'!$H$11-'1D'!$H11)^2)</f>
@@ -2595,49 +2594,49 @@
       </c>
       <c r="K10">
         <f ca="1">SQRT(('1D'!$G$12-'1D'!$G11)^2+('1D'!$H$12-'1D'!$H11)^2)</f>
-        <v>12.498488471440242</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+        <v>85.222914677104058</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11">
         <f>SQRT(('1D'!$G$2-'1D'!$G12)^2+('1D'!$H$2-'1D'!$H12)^2)</f>
         <v>0</v>
       </c>
       <c r="B11">
         <f ca="1">SQRT(('1D'!$G$3-'1D'!$G12)^2+('1D'!$H$3-'1D'!$H12)^2)</f>
-        <v>101.51879593812426</v>
+        <v>114.99585725201707</v>
       </c>
       <c r="C11">
         <f ca="1">SQRT(('1D'!$G$4-'1D'!$G12)^2+('1D'!$H$4-'1D'!$H12)^2)</f>
-        <v>72.44874544107779</v>
+        <v>46.621423924351035</v>
       </c>
       <c r="D11">
         <f ca="1">SQRT(('1D'!$G$5-'1D'!$G12)^2+('1D'!$H$5-'1D'!$H12)^2)</f>
-        <v>130.14484420776699</v>
+        <v>116.26955329224484</v>
       </c>
       <c r="E11">
         <f ca="1">SQRT(('1D'!$G$6-'1D'!$G12)^2+('1D'!$H$6-'1D'!$H12)^2)</f>
-        <v>58.066744060264433</v>
+        <v>76.203923464026403</v>
       </c>
       <c r="F11">
         <f ca="1">SQRT(('1D'!$G$7-'1D'!$G12)^2+('1D'!$H$7-'1D'!$H12)^2)</f>
-        <v>44.718505066662196</v>
+        <v>56.683769309569037</v>
       </c>
       <c r="G11">
         <f ca="1">SQRT(('1D'!$G$8-'1D'!$G12)^2+('1D'!$H$8-'1D'!$H12)^2)</f>
-        <v>20.493628126097285</v>
+        <v>92.539952774190567</v>
       </c>
       <c r="H11">
         <f ca="1">SQRT(('1D'!$G$9-'1D'!$G12)^2+('1D'!$H$9-'1D'!$H12)^2)</f>
-        <v>52.210139183696349</v>
+        <v>91.729025308586586</v>
       </c>
       <c r="I11">
         <f ca="1">SQRT(('1D'!$G$10-'1D'!$G12)^2+('1D'!$H$10-'1D'!$H12)^2)</f>
-        <v>44.138512278178013</v>
+        <v>82.420497950159614</v>
       </c>
       <c r="J11">
         <f ca="1">SQRT(('1D'!$G$11-'1D'!$G12)^2+('1D'!$H$11-'1D'!$H12)^2)</f>
-        <v>12.498488471440242</v>
+        <v>85.222914677104058</v>
       </c>
       <c r="K11">
         <f>SQRT(('1D'!$G$12-'1D'!$G12)^2+('1D'!$H$12-'1D'!$H12)^2)</f>
@@ -2660,48 +2659,48 @@
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1">
         <f>Distances!A1/80</f>
         <v>0</v>
       </c>
       <c r="B1">
         <f ca="1">Distances!B1/80</f>
-        <v>1.2689849492265532</v>
+        <v>1.4374482156502135</v>
       </c>
       <c r="C1">
         <f ca="1">Distances!C1/80</f>
-        <v>0.90560931801347233</v>
+        <v>0.58276779905438791</v>
       </c>
       <c r="D1">
         <f ca="1">Distances!D1/80</f>
-        <v>1.6268105525970875</v>
+        <v>1.4533694161530604</v>
       </c>
       <c r="E1">
         <f ca="1">Distances!F1/80</f>
-        <v>0.5589813133332775</v>
+        <v>0.70854711636961298</v>
       </c>
       <c r="F1">
         <f ca="1">Distances!G1/80</f>
-        <v>0.25617035157621604</v>
+        <v>1.156749409677382</v>
       </c>
       <c r="G1">
         <f ca="1">Distances!G1/80</f>
-        <v>0.25617035157621604</v>
+        <v>1.156749409677382</v>
       </c>
       <c r="H1">
         <f ca="1">Distances!H1/80</f>
-        <v>0.65262673979620434</v>
+        <v>1.1466128163573324</v>
       </c>
       <c r="I1">
         <f ca="1">Distances!I1/80</f>
-        <v>0.55173140347722516</v>
+        <v>1.0302562243769953</v>
       </c>
       <c r="J1">
         <f ca="1">Distances!J1/80</f>
-        <v>0.15623110589300301</v>
+        <v>1.0652864334638008</v>
       </c>
       <c r="K1">
         <f>Distances!K1/80</f>
@@ -2732,10 +2731,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2">
         <f ca="1">Distances!A2/80</f>
-        <v>1.2689849492265532</v>
+        <v>1.4374482156502135</v>
       </c>
       <c r="B2">
         <f ca="1">Distances!B2/80</f>
@@ -2743,39 +2742,39 @@
       </c>
       <c r="C2">
         <f ca="1">Distances!C2/80</f>
-        <v>0.95681375831473381</v>
+        <v>0.98701595893303895</v>
       </c>
       <c r="D2">
         <f ca="1">Distances!D2/80</f>
-        <v>2.8751278794119934</v>
+        <v>2.0468443383985244</v>
       </c>
       <c r="E2">
         <f ca="1">Distances!E2/80</f>
-        <v>1.9683687026908099</v>
+        <v>2.3892482193776141</v>
       </c>
       <c r="F2">
         <f ca="1">Distances!F2/80</f>
-        <v>1.5533152958311711</v>
+        <v>1.4548164934438357</v>
       </c>
       <c r="G2">
         <f ca="1">Distances!G2/80</f>
-        <v>1.0437023406163106</v>
+        <v>2.0692350089965763</v>
       </c>
       <c r="H2">
         <f ca="1">Distances!H2/80</f>
-        <v>1.8702213557256162</v>
+        <v>0.30332260458085314</v>
       </c>
       <c r="I2">
         <f ca="1">Distances!I2/80</f>
-        <v>1.7892869584754827</v>
+        <v>2.413688652550936</v>
       </c>
       <c r="J2">
         <f ca="1">Distances!J2/80</f>
-        <v>1.1732093052007095</v>
+        <v>0.49108544339267057</v>
       </c>
       <c r="K2">
         <f ca="1">Distances!K2/80</f>
-        <v>1.2689849492265532</v>
+        <v>1.4374482156502135</v>
       </c>
       <c r="L2">
         <f>Distances!L2/80</f>
@@ -2802,14 +2801,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3">
         <f ca="1">Distances!A3/80</f>
-        <v>0.90560931801347233</v>
+        <v>0.58276779905438791</v>
       </c>
       <c r="B3">
         <f ca="1">Distances!B3/80</f>
-        <v>0.95681375831473381</v>
+        <v>0.98701595893303895</v>
       </c>
       <c r="C3">
         <f ca="1">Distances!C3/80</f>
@@ -2817,35 +2816,35 @@
       </c>
       <c r="D3">
         <f ca="1">Distances!D3/80</f>
-        <v>2.4251665204273549</v>
+        <v>1.2553404720375343</v>
       </c>
       <c r="E3">
         <f ca="1">Distances!E3/80</f>
-        <v>1.5789014447889143</v>
+        <v>1.4713854814919656</v>
       </c>
       <c r="F3">
         <f ca="1">Distances!F3/80</f>
-        <v>1.4413894520527955</v>
+        <v>0.51659870870732427</v>
       </c>
       <c r="G3">
         <f ca="1">Distances!G3/80</f>
-        <v>0.87191299501597064</v>
+        <v>1.6300680608392515</v>
       </c>
       <c r="H3">
         <f ca="1">Distances!H3/80</f>
-        <v>1.2309331678482249</v>
+        <v>0.6843652838813391</v>
       </c>
       <c r="I3">
         <f ca="1">Distances!I3/80</f>
-        <v>1.423437678492304</v>
+        <v>1.4417244770463988</v>
       </c>
       <c r="J3">
         <f ca="1">Distances!J3/80</f>
-        <v>0.74938795039082873</v>
+        <v>0.78395664212886151</v>
       </c>
       <c r="K3">
         <f ca="1">Distances!K3/80</f>
-        <v>0.90560931801347233</v>
+        <v>0.58276779905438791</v>
       </c>
       <c r="L3">
         <f>Distances!L3/80</f>
@@ -2872,18 +2871,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4">
         <f ca="1">Distances!A4/80</f>
-        <v>1.6268105525970875</v>
+        <v>1.4533694161530604</v>
       </c>
       <c r="B4">
         <f ca="1">Distances!B4/80</f>
-        <v>2.8751278794119934</v>
+        <v>2.0468443383985244</v>
       </c>
       <c r="C4">
         <f ca="1">Distances!C4/80</f>
-        <v>2.4251665204273549</v>
+        <v>1.2553404720375343</v>
       </c>
       <c r="D4">
         <f ca="1">Distances!D4/80</f>
@@ -2891,31 +2890,31 @@
       </c>
       <c r="E4">
         <f ca="1">Distances!E4/80</f>
-        <v>0.90724693843018467</v>
+        <v>1.6943445995820703</v>
       </c>
       <c r="F4">
         <f ca="1">Distances!F4/80</f>
-        <v>1.3934365502469477</v>
+        <v>0.7792767604309051</v>
       </c>
       <c r="G4">
         <f ca="1">Distances!G4/80</f>
-        <v>1.832134399176353</v>
+        <v>2.5867405595404929</v>
       </c>
       <c r="H4">
         <f ca="1">Distances!H4/80</f>
-        <v>1.2212334507549159</v>
+        <v>1.7922875430426697</v>
       </c>
       <c r="I4">
         <f ca="1">Distances!I4/80</f>
-        <v>1.0862751354702094</v>
+        <v>1.3897263971281133</v>
       </c>
       <c r="J4">
         <f ca="1">Distances!J4/80</f>
-        <v>1.7562825728444964</v>
+        <v>2.0124686571465391</v>
       </c>
       <c r="K4">
         <f ca="1">Distances!K4/80</f>
-        <v>1.6268105525970875</v>
+        <v>1.4533694161530604</v>
       </c>
       <c r="L4">
         <f>Distances!L4/80</f>
@@ -2942,22 +2941,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5">
         <f ca="1">Distances!A5/80</f>
-        <v>0.72583430075330546</v>
+        <v>0.95254904330033008</v>
       </c>
       <c r="B5">
         <f ca="1">Distances!B5/80</f>
-        <v>1.9683687026908099</v>
+        <v>2.3892482193776141</v>
       </c>
       <c r="C5">
         <f ca="1">Distances!C5/80</f>
-        <v>1.5789014447889143</v>
+        <v>1.4713854814919656</v>
       </c>
       <c r="D5">
         <f ca="1">Distances!D5/80</f>
-        <v>0.90724693843018467</v>
+        <v>1.6943445995820703</v>
       </c>
       <c r="E5">
         <f ca="1">Distances!E5/80</f>
@@ -2965,27 +2964,27 @@
       </c>
       <c r="F5">
         <f ca="1">Distances!F5/80</f>
-        <v>0.56722820756072989</v>
+        <v>1.2810598246887026</v>
       </c>
       <c r="G5">
         <f ca="1">Distances!G5/80</f>
-        <v>0.92498415480332796</v>
+        <v>1.3316917600565081</v>
       </c>
       <c r="H5">
         <f ca="1">Distances!H5/80</f>
-        <v>0.5591404112086813</v>
+        <v>2.0955256221664618</v>
       </c>
       <c r="I5">
         <f ca="1">Distances!I5/80</f>
-        <v>0.17909230705849008</v>
+        <v>0.37646078643901631</v>
       </c>
       <c r="J5">
         <f ca="1">Distances!J5/80</f>
-        <v>0.8647547652851888</v>
+        <v>2.0069131055823393</v>
       </c>
       <c r="K5">
         <f ca="1">Distances!K5/80</f>
-        <v>0.72583430075330546</v>
+        <v>0.95254904330033008</v>
       </c>
       <c r="L5">
         <f>Distances!L5/80</f>
@@ -3012,26 +3011,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6">
         <f ca="1">Distances!A6/80</f>
-        <v>0.5589813133332775</v>
+        <v>0.70854711636961298</v>
       </c>
       <c r="B6">
         <f ca="1">Distances!B6/80</f>
-        <v>1.5533152958311711</v>
+        <v>1.4548164934438357</v>
       </c>
       <c r="C6">
         <f ca="1">Distances!C6/80</f>
-        <v>1.4413894520527955</v>
+        <v>0.51659870870732427</v>
       </c>
       <c r="D6">
         <f ca="1">Distances!D6/80</f>
-        <v>1.3934365502469477</v>
+        <v>0.7792767604309051</v>
       </c>
       <c r="E6">
         <f ca="1">Distances!E6/80</f>
-        <v>0.56722820756072989</v>
+        <v>1.2810598246887026</v>
       </c>
       <c r="F6">
         <f ca="1">Distances!F6/80</f>
@@ -3039,23 +3038,23 @@
       </c>
       <c r="G6">
         <f ca="1">Distances!G6/80</f>
-        <v>0.59284823700448774</v>
+        <v>1.8648838519133701</v>
       </c>
       <c r="H6">
         <f ca="1">Distances!H6/80</f>
-        <v>0.91555446233122928</v>
+        <v>1.1622979558320117</v>
       </c>
       <c r="I6">
         <f ca="1">Distances!I6/80</f>
-        <v>0.43912478017913958</v>
+        <v>1.1275137799055479</v>
       </c>
       <c r="J6">
         <f ca="1">Distances!J6/80</f>
-        <v>0.70747833981444264</v>
+        <v>1.3004608703223606</v>
       </c>
       <c r="K6">
         <f ca="1">Distances!K6/80</f>
-        <v>0.5589813133332775</v>
+        <v>0.70854711636961298</v>
       </c>
       <c r="L6">
         <f>Distances!L6/80</f>
@@ -3082,30 +3081,30 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7">
         <f ca="1">Distances!A7/80</f>
-        <v>0.25617035157621604</v>
+        <v>1.156749409677382</v>
       </c>
       <c r="B7">
         <f ca="1">Distances!B7/80</f>
-        <v>1.0437023406163106</v>
+        <v>2.0692350089965763</v>
       </c>
       <c r="C7">
         <f ca="1">Distances!C7/80</f>
-        <v>0.87191299501597064</v>
+        <v>1.6300680608392515</v>
       </c>
       <c r="D7">
         <f ca="1">Distances!D7/80</f>
-        <v>1.832134399176353</v>
+        <v>2.5867405595404929</v>
       </c>
       <c r="E7">
         <f ca="1">Distances!E7/80</f>
-        <v>0.92498415480332796</v>
+        <v>1.3316917600565081</v>
       </c>
       <c r="F7">
         <f ca="1">Distances!F7/80</f>
-        <v>0.59284823700448774</v>
+        <v>1.8648838519133701</v>
       </c>
       <c r="G7">
         <f ca="1">Distances!G7/80</f>
@@ -3113,19 +3112,19 @@
       </c>
       <c r="H7">
         <f ca="1">Distances!H7/80</f>
-        <v>0.90861715617573324</v>
+        <v>1.8768784680350166</v>
       </c>
       <c r="I7">
         <f ca="1">Distances!I7/80</f>
-        <v>0.74590031369426579</v>
+        <v>1.6657940629848373</v>
       </c>
       <c r="J7">
         <f ca="1">Distances!J7/80</f>
-        <v>0.26298525624325503</v>
+        <v>1.5782942138158109</v>
       </c>
       <c r="K7">
         <f ca="1">Distances!K7/80</f>
-        <v>0.25617035157621604</v>
+        <v>1.156749409677382</v>
       </c>
       <c r="L7">
         <f>Distances!L7/80</f>
@@ -3152,34 +3151,34 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8">
         <f ca="1">Distances!A8/80</f>
-        <v>0.65262673979620434</v>
+        <v>1.1466128163573324</v>
       </c>
       <c r="B8">
         <f ca="1">Distances!B8/80</f>
-        <v>1.8702213557256162</v>
+        <v>0.30332260458085314</v>
       </c>
       <c r="C8">
         <f ca="1">Distances!C8/80</f>
-        <v>1.2309331678482249</v>
+        <v>0.6843652838813391</v>
       </c>
       <c r="D8">
         <f ca="1">Distances!D8/80</f>
-        <v>1.2212334507549159</v>
+        <v>1.7922875430426697</v>
       </c>
       <c r="E8">
         <f ca="1">Distances!E8/80</f>
-        <v>0.5591404112086813</v>
+        <v>2.0955256221664618</v>
       </c>
       <c r="F8">
         <f ca="1">Distances!F8/80</f>
-        <v>0.91555446233122928</v>
+        <v>1.1622979558320117</v>
       </c>
       <c r="G8">
         <f ca="1">Distances!G8/80</f>
-        <v>0.90861715617573324</v>
+        <v>1.8768784680350166</v>
       </c>
       <c r="H8">
         <f ca="1">Distances!H8/80</f>
@@ -3187,15 +3186,15 @@
       </c>
       <c r="I8">
         <f ca="1">Distances!I8/80</f>
-        <v>0.52917112382781994</v>
+        <v>2.1114560953700559</v>
       </c>
       <c r="J8">
         <f ca="1">Distances!J8/80</f>
-        <v>0.70337932750308141</v>
+        <v>0.3686132406986779</v>
       </c>
       <c r="K8">
         <f ca="1">Distances!K8/80</f>
-        <v>0.65262673979620434</v>
+        <v>1.1466128163573324</v>
       </c>
       <c r="L8">
         <f>Distances!L8/80</f>
@@ -3222,38 +3221,38 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9">
         <f ca="1">Distances!A9/80</f>
-        <v>0.55173140347722516</v>
+        <v>1.0302562243769953</v>
       </c>
       <c r="B9">
         <f ca="1">Distances!B9/80</f>
-        <v>1.7892869584754827</v>
+        <v>2.413688652550936</v>
       </c>
       <c r="C9">
         <f ca="1">Distances!C9/80</f>
-        <v>1.423437678492304</v>
+        <v>1.4417244770463988</v>
       </c>
       <c r="D9">
         <f ca="1">Distances!D9/80</f>
-        <v>1.0862751354702094</v>
+        <v>1.3897263971281133</v>
       </c>
       <c r="E9">
         <f ca="1">Distances!E9/80</f>
-        <v>0.17909230705849008</v>
+        <v>0.37646078643901631</v>
       </c>
       <c r="F9">
         <f ca="1">Distances!F9/80</f>
-        <v>0.43912478017913958</v>
+        <v>1.1275137799055479</v>
       </c>
       <c r="G9">
         <f ca="1">Distances!G9/80</f>
-        <v>0.74590031369426579</v>
+        <v>1.6657940629848373</v>
       </c>
       <c r="H9">
         <f ca="1">Distances!H9/80</f>
-        <v>0.52917112382781994</v>
+        <v>2.1114560953700559</v>
       </c>
       <c r="I9">
         <f ca="1">Distances!I9/80</f>
@@ -3261,11 +3260,11 @@
       </c>
       <c r="J9">
         <f ca="1">Distances!J9/80</f>
-        <v>0.69541273700353523</v>
+        <v>2.0883745756131402</v>
       </c>
       <c r="K9">
         <f ca="1">Distances!K9/80</f>
-        <v>0.55173140347722516</v>
+        <v>1.0302562243769953</v>
       </c>
       <c r="L9">
         <f>Distances!L9/80</f>
@@ -3292,42 +3291,42 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10">
         <f ca="1">Distances!A10/80</f>
-        <v>0.15623110589300301</v>
+        <v>1.0652864334638008</v>
       </c>
       <c r="B10">
         <f ca="1">Distances!B10/80</f>
-        <v>1.1732093052007095</v>
+        <v>0.49108544339267057</v>
       </c>
       <c r="C10">
         <f ca="1">Distances!C10/80</f>
-        <v>0.74938795039082873</v>
+        <v>0.78395664212886151</v>
       </c>
       <c r="D10">
         <f ca="1">Distances!D10/80</f>
-        <v>1.7562825728444964</v>
+        <v>2.0124686571465391</v>
       </c>
       <c r="E10">
         <f ca="1">Distances!E10/80</f>
-        <v>0.8647547652851888</v>
+        <v>2.0069131055823393</v>
       </c>
       <c r="F10">
         <f ca="1">Distances!F10/80</f>
-        <v>0.70747833981444264</v>
+        <v>1.3004608703223606</v>
       </c>
       <c r="G10">
         <f ca="1">Distances!G10/80</f>
-        <v>0.26298525624325503</v>
+        <v>1.5782942138158109</v>
       </c>
       <c r="H10">
         <f ca="1">Distances!H10/80</f>
-        <v>0.70337932750308141</v>
+        <v>0.3686132406986779</v>
       </c>
       <c r="I10">
         <f ca="1">Distances!I10/80</f>
-        <v>0.69541273700353523</v>
+        <v>2.0883745756131402</v>
       </c>
       <c r="J10">
         <f ca="1">Distances!J10/80</f>
@@ -3335,7 +3334,7 @@
       </c>
       <c r="K10">
         <f ca="1">Distances!K10/80</f>
-        <v>0.15623110589300301</v>
+        <v>1.0652864334638008</v>
       </c>
       <c r="L10">
         <f>Distances!L10/80</f>
@@ -3362,46 +3361,46 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11">
         <f>Distances!A11/80</f>
         <v>0</v>
       </c>
       <c r="B11">
         <f ca="1">Distances!B11/80</f>
-        <v>1.2689849492265532</v>
+        <v>1.4374482156502135</v>
       </c>
       <c r="C11">
         <f ca="1">Distances!C11/80</f>
-        <v>0.90560931801347233</v>
+        <v>0.58276779905438791</v>
       </c>
       <c r="D11">
         <f ca="1">Distances!D11/80</f>
-        <v>1.6268105525970875</v>
+        <v>1.4533694161530604</v>
       </c>
       <c r="E11">
         <f ca="1">Distances!E11/80</f>
-        <v>0.72583430075330546</v>
+        <v>0.95254904330033008</v>
       </c>
       <c r="F11">
         <f ca="1">Distances!F11/80</f>
-        <v>0.5589813133332775</v>
+        <v>0.70854711636961298</v>
       </c>
       <c r="G11">
         <f ca="1">Distances!G11/80</f>
-        <v>0.25617035157621604</v>
+        <v>1.156749409677382</v>
       </c>
       <c r="H11">
         <f ca="1">Distances!H11/80</f>
-        <v>0.65262673979620434</v>
+        <v>1.1466128163573324</v>
       </c>
       <c r="I11">
         <f ca="1">Distances!I11/80</f>
-        <v>0.55173140347722516</v>
+        <v>1.0302562243769953</v>
       </c>
       <c r="J11">
         <f ca="1">Distances!J11/80</f>
-        <v>0.15623110589300301</v>
+        <v>1.0652864334638008</v>
       </c>
       <c r="K11">
         <f>Distances!K11/80</f>
@@ -3432,7 +3431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12">
         <f>Distances!A12/80</f>
         <v>0</v>
@@ -3502,7 +3501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13">
         <f>Distances!A13/80</f>
         <v>0</v>
@@ -3572,7 +3571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14">
         <f>Distances!A14/80</f>
         <v>0</v>
@@ -3642,7 +3641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15">
         <f>Distances!A15/80</f>
         <v>0</v>
@@ -3712,7 +3711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16">
         <f>Distances!A16/80</f>
         <v>0</v>
@@ -3782,7 +3781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17">
         <f>Distances!A17/80</f>
         <v>0</v>

--- a/9 5/ExactModelData.xlsx
+++ b/9 5/ExactModelData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Aaron\Google Drive\University\2020\Industrial Project 498\Exact Model Implementation\9 5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CD8B1D7-AACC-46E8-81EF-F74F15D5A932}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76F35FDD-4C79-426E-AB15-20CA2E2AC075}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1D" sheetId="3" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -356,31 +356,31 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-92.303124035969077</c:v>
+                  <c:v>-61.383194070212511</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-17.534874688766124</c:v>
+                  <c:v>62.685556200139843</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>69.592860278442444</c:v>
+                  <c:v>28.678304334644352</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>63.409450807393824</c:v>
+                  <c:v>-5.8907641650592666</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>22.874402285612859</c:v>
+                  <c:v>64.881949199091807</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-33.64033952020138</c:v>
+                  <c:v>-80.506109942711134</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-69.793332998932996</c:v>
+                  <c:v>-35.140828739708184</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>80.542184399588535</c:v>
+                  <c:v>-40.299554497875619</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-79.162657845529097</c:v>
+                  <c:v>22.196456399128991</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0</c:v>
@@ -398,31 +398,31 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>68.587028499030296</c:v>
+                  <c:v>-46.603848594481804</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43.198209897903411</c:v>
+                  <c:v>59.210395543320047</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>93.142057208563685</c:v>
+                  <c:v>97.136177648664699</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-42.264399908385045</c:v>
+                  <c:v>-83.185064284619045</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>51.863391937053152</c:v>
+                  <c:v>-30.041400001409926</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-86.20887666832806</c:v>
+                  <c:v>-50.762902197985341</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>59.523984686539336</c:v>
+                  <c:v>89.604383048755608</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-17.495571282325798</c:v>
+                  <c:v>-6.202919227587671</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>31.562933781457133</c:v>
+                  <c:v>87.482302504132605</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0</c:v>
@@ -1495,7 +1495,7 @@
   </sheetPr>
   <dimension ref="A1:U16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
@@ -1587,11 +1587,11 @@
       </c>
       <c r="C2" cm="1">
         <f t="array" aca="1" ref="C2:E2" ca="1">_xlfn.XLOOKUP(B2,OFFSET($R$2,0,0,$P$8,1),OFFSET($S$2,0,0,$P$8,3))</f>
-        <v>0.76986257628272314</v>
+        <v>0.70040597489033396</v>
       </c>
       <c r="D2" s="8">
         <f ca="1"/>
-        <v>11.910517994870387</v>
+        <v>9.4643399522963758</v>
       </c>
       <c r="E2" s="2">
         <f ca="1"/>
@@ -1629,11 +1629,11 @@
       </c>
       <c r="S2" cm="1">
         <f t="array" aca="1" ref="S2:S4" ca="1">_xlfn.RANDARRAY(P8,1,P10,P9,FALSE)</f>
-        <v>0.97597635983367947</v>
+        <v>0.93568196918509217</v>
       </c>
       <c r="T2" cm="1">
         <f t="array" aca="1" ref="T2:T4" ca="1">_xlfn.RANDARRAY(P8,1,P12,P11,FALSE)</f>
-        <v>10.174091547832749</v>
+        <v>12.085099559254255</v>
       </c>
       <c r="U2">
         <v>16</v>
@@ -1649,11 +1649,11 @@
       </c>
       <c r="C3" cm="1">
         <f t="array" aca="1" ref="C3:E3" ca="1">_xlfn.XLOOKUP(B3,OFFSET($R$2,0,0,$P$8,1),OFFSET($S$2,0,0,$P$8,3))</f>
-        <v>0.76986257628272314</v>
+        <v>0.70040597489033396</v>
       </c>
       <c r="D3" s="8">
         <f ca="1"/>
-        <v>11.910517994870387</v>
+        <v>9.4643399522963758</v>
       </c>
       <c r="E3" s="2">
         <f ca="1"/>
@@ -1664,27 +1664,27 @@
       </c>
       <c r="G3" cm="1">
         <f t="array" aca="1" ref="G3:H11" ca="1">_xlfn.RANDARRAY(P2,2,P4,P3,FALSE)</f>
-        <v>-92.303124035969077</v>
+        <v>-61.383194070212511</v>
       </c>
       <c r="H3">
         <f ca="1"/>
-        <v>68.587028499030296</v>
+        <v>-46.603848594481804</v>
       </c>
       <c r="I3" cm="1">
         <f t="array" aca="1" ref="I3:I11" ca="1">_xlfn.RANDARRAY(P2,1,1,ROUNDUP((P14/P2),0),TRUE)</f>
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="J3">
         <f ca="1">IF(RAND()&lt;$P$5,RANDBETWEEN(5,23), 0)</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="K3">
         <f ca="1">IF(J3=0,24,J3+1)</f>
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="L3" cm="1">
         <f t="array" aca="1" ref="L3:L11" ca="1">_xlfn.RANDARRAY(P2,1,P7,P6,FALSE)</f>
-        <v>0.10347425370133467</v>
+        <v>4.1914298209592887E-2</v>
       </c>
       <c r="O3" s="1" t="s">
         <v>14</v>
@@ -1697,11 +1697,11 @@
       </c>
       <c r="S3">
         <f ca="1"/>
-        <v>1.1544648533903015</v>
+        <v>0.97108358345539925</v>
       </c>
       <c r="T3">
         <f ca="1"/>
-        <v>8.9753490910616964</v>
+        <v>7.5864439557403216</v>
       </c>
       <c r="U3">
         <v>22</v>
@@ -1713,38 +1713,38 @@
       </c>
       <c r="B4" t="str">
         <f ca="1">OFFSET($R$1,RANDBETWEEN(1,$P$8),0)</f>
-        <v>8 metre</v>
+        <v>11 metre</v>
       </c>
       <c r="C4" cm="1">
         <f t="array" aca="1" ref="C4:E4" ca="1">_xlfn.XLOOKUP(B4,OFFSET($R$2,0,0,$P$8,1),OFFSET($S$2,0,0,$P$8,3))</f>
-        <v>1.1544648533903015</v>
+        <v>0.70040597489033396</v>
       </c>
       <c r="D4" s="8">
         <f ca="1"/>
-        <v>8.9753490910616964</v>
+        <v>9.4643399522963758</v>
       </c>
       <c r="E4" s="2">
         <f ca="1"/>
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="F4">
         <v>2</v>
       </c>
       <c r="G4">
         <f ca="1"/>
-        <v>-17.534874688766124</v>
+        <v>62.685556200139843</v>
       </c>
       <c r="H4">
         <f ca="1"/>
-        <v>43.198209897903411</v>
+        <v>59.210395543320047</v>
       </c>
       <c r="I4">
         <f ca="1"/>
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="J4">
         <f t="shared" ref="J4:J11" ca="1" si="0">IF(RAND()&lt;$P$5,RANDBETWEEN(5,23), 0)</f>
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="K4">
         <f t="shared" ref="K4:K6" ca="1" si="1">IF(J4=0,24,J4+1)</f>
@@ -1752,7 +1752,7 @@
       </c>
       <c r="L4">
         <f ca="1"/>
-        <v>2.3827347224399859E-2</v>
+        <v>2.6534972275196134E-2</v>
       </c>
       <c r="O4" s="1" t="s">
         <v>15</v>
@@ -1765,11 +1765,11 @@
       </c>
       <c r="S4">
         <f ca="1"/>
-        <v>0.76986257628272314</v>
+        <v>0.70040597489033396</v>
       </c>
       <c r="T4">
         <f ca="1"/>
-        <v>11.910517994870387</v>
+        <v>9.4643399522963758</v>
       </c>
       <c r="U4">
         <v>30</v>
@@ -1785,11 +1785,11 @@
       </c>
       <c r="C5" cm="1">
         <f t="array" aca="1" ref="C5:E5" ca="1">_xlfn.XLOOKUP(B5,OFFSET($R$2,0,0,$P$8,1),OFFSET($S$2,0,0,$P$8,3))</f>
-        <v>0.97597635983367947</v>
+        <v>0.93568196918509217</v>
       </c>
       <c r="D5" s="8">
         <f ca="1"/>
-        <v>10.174091547832749</v>
+        <v>12.085099559254255</v>
       </c>
       <c r="E5" s="2">
         <f ca="1"/>
@@ -1800,15 +1800,15 @@
       </c>
       <c r="G5">
         <f ca="1"/>
-        <v>69.592860278442444</v>
+        <v>28.678304334644352</v>
       </c>
       <c r="H5">
         <f ca="1"/>
-        <v>93.142057208563685</v>
+        <v>97.136177648664699</v>
       </c>
       <c r="I5">
         <f ca="1"/>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="J5">
         <f t="shared" ca="1" si="0"/>
@@ -1820,7 +1820,7 @@
       </c>
       <c r="L5">
         <f ca="1"/>
-        <v>4.9077765480416868E-2</v>
+        <v>4.3494740050924963E-2</v>
       </c>
       <c r="O5" s="1" t="s">
         <v>23</v>
@@ -1841,11 +1841,11 @@
       </c>
       <c r="C6" cm="1">
         <f t="array" aca="1" ref="C6:E6" ca="1">_xlfn.XLOOKUP(B6,OFFSET($R$2,0,0,$P$8,1),OFFSET($S$2,0,0,$P$8,3))</f>
-        <v>0.76986257628272314</v>
+        <v>0.70040597489033396</v>
       </c>
       <c r="D6" s="8">
         <f ca="1"/>
-        <v>11.910517994870387</v>
+        <v>9.4643399522963758</v>
       </c>
       <c r="E6" s="2">
         <f ca="1"/>
@@ -1856,15 +1856,15 @@
       </c>
       <c r="G6">
         <f ca="1"/>
-        <v>63.409450807393824</v>
+        <v>-5.8907641650592666</v>
       </c>
       <c r="H6">
         <f ca="1"/>
-        <v>-42.264399908385045</v>
+        <v>-83.185064284619045</v>
       </c>
       <c r="I6">
         <f ca="1"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J6">
         <f t="shared" ca="1" si="0"/>
@@ -1876,7 +1876,7 @@
       </c>
       <c r="L6">
         <f ca="1"/>
-        <v>0.13207536157664881</v>
+        <v>0.12345678353456674</v>
       </c>
       <c r="O6" s="1" t="s">
         <v>25</v>
@@ -1893,15 +1893,15 @@
       </c>
       <c r="G7">
         <f ca="1"/>
-        <v>22.874402285612859</v>
+        <v>64.881949199091807</v>
       </c>
       <c r="H7">
         <f ca="1"/>
-        <v>51.863391937053152</v>
+        <v>-30.041400001409926</v>
       </c>
       <c r="I7">
         <f ca="1"/>
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="J7">
         <f t="shared" ca="1" si="0"/>
@@ -1913,7 +1913,7 @@
       </c>
       <c r="L7">
         <f ca="1"/>
-        <v>0.12388201282478128</v>
+        <v>0.15368140540966926</v>
       </c>
       <c r="O7" s="1" t="s">
         <v>24</v>
@@ -1929,15 +1929,15 @@
       </c>
       <c r="G8">
         <f ca="1"/>
-        <v>-33.64033952020138</v>
+        <v>-80.506109942711134</v>
       </c>
       <c r="H8">
         <f ca="1"/>
-        <v>-86.20887666832806</v>
+        <v>-50.762902197985341</v>
       </c>
       <c r="I8">
         <f ca="1"/>
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="J8">
         <f t="shared" ca="1" si="0"/>
@@ -1949,7 +1949,7 @@
       </c>
       <c r="L8">
         <f ca="1"/>
-        <v>9.7647624803435334E-2</v>
+        <v>0.12390563679775796</v>
       </c>
       <c r="O8" s="1" t="s">
         <v>32</v>
@@ -1964,27 +1964,27 @@
       </c>
       <c r="G9">
         <f ca="1"/>
-        <v>-69.793332998932996</v>
+        <v>-35.140828739708184</v>
       </c>
       <c r="H9">
         <f ca="1"/>
-        <v>59.523984686539336</v>
+        <v>89.604383048755608</v>
       </c>
       <c r="I9">
         <f ca="1"/>
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="J9">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="K9">
         <f t="shared" ca="1" si="3"/>
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="L9">
         <f ca="1"/>
-        <v>0.1527429086135719</v>
+        <v>2.3706804975905438E-2</v>
       </c>
       <c r="O9" s="1" t="s">
         <v>20</v>
@@ -1999,15 +1999,15 @@
       </c>
       <c r="G10">
         <f ca="1"/>
-        <v>80.542184399588535</v>
+        <v>-40.299554497875619</v>
       </c>
       <c r="H10">
         <f ca="1"/>
-        <v>-17.495571282325798</v>
+        <v>-6.202919227587671</v>
       </c>
       <c r="I10">
         <f ca="1"/>
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J10">
         <f t="shared" ca="1" si="0"/>
@@ -2019,7 +2019,7 @@
       </c>
       <c r="L10">
         <f ca="1"/>
-        <v>7.6418706637919082E-2</v>
+        <v>0.16262052316009845</v>
       </c>
       <c r="O10" s="1" t="s">
         <v>19</v>
@@ -2034,27 +2034,27 @@
       </c>
       <c r="G11">
         <f ca="1"/>
-        <v>-79.162657845529097</v>
+        <v>22.196456399128991</v>
       </c>
       <c r="H11">
         <f ca="1"/>
-        <v>31.562933781457133</v>
+        <v>87.482302504132605</v>
       </c>
       <c r="I11">
         <f ca="1"/>
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="J11">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K11">
         <f t="shared" ca="1" si="3"/>
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="L11">
         <f ca="1"/>
-        <v>5.8863303849863297E-2</v>
+        <v>9.6273461760824824E-2</v>
       </c>
       <c r="O11" s="1" t="s">
         <v>21</v>
@@ -2098,7 +2098,7 @@
       </c>
       <c r="P14">
         <f ca="1">SUM(E:E)</f>
-        <v>128</v>
+        <v>136</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
@@ -2107,13 +2107,13 @@
       </c>
       <c r="P15">
         <f ca="1">SUM(I:I)</f>
-        <v>92</v>
+        <v>71</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="P16" s="5">
         <f ca="1">P15/P14</f>
-        <v>0.71875</v>
+        <v>0.5220588235294118</v>
       </c>
     </row>
   </sheetData>
@@ -2144,39 +2144,39 @@
       </c>
       <c r="B1">
         <f ca="1">SQRT(('1D'!$G$3-'1D'!$G2)^2+('1D'!$H$3-'1D'!$H2)^2)</f>
-        <v>114.99585725201707</v>
+        <v>77.070196691579525</v>
       </c>
       <c r="C1">
         <f ca="1">SQRT(('1D'!$G$4-'1D'!$G2)^2+('1D'!$H$4-'1D'!$H2)^2)</f>
-        <v>46.621423924351035</v>
+        <v>86.228474975018003</v>
       </c>
       <c r="D1">
         <f ca="1">SQRT(('1D'!$G$5-'1D'!$G2)^2+('1D'!$H$5-'1D'!$H2)^2)</f>
-        <v>116.26955329224484</v>
+        <v>101.28120332867017</v>
       </c>
       <c r="E1">
         <f ca="1">SQRT(('1D'!$G$6-'1D'!$G2)^2+('1D'!$H$6-'1D'!$H2)^2)</f>
-        <v>76.203923464026403</v>
+        <v>83.393381167119912</v>
       </c>
       <c r="F1">
         <f ca="1">SQRT(('1D'!$G$7-'1D'!$G2)^2+('1D'!$H$7-'1D'!$H2)^2)</f>
-        <v>56.683769309569037</v>
+        <v>71.499321996213652</v>
       </c>
       <c r="G1">
         <f ca="1">SQRT(('1D'!$G$8-'1D'!$G2)^2+('1D'!$H$8-'1D'!$H2)^2)</f>
-        <v>92.539952774190567</v>
+        <v>95.174082489247652</v>
       </c>
       <c r="H1">
         <f ca="1">SQRT(('1D'!$G$9-'1D'!$G2)^2+('1D'!$H$9-'1D'!$H2)^2)</f>
-        <v>91.729025308586586</v>
+        <v>96.248757426065623</v>
       </c>
       <c r="I1">
         <f ca="1">SQRT(('1D'!$G$10-'1D'!$G2)^2+('1D'!$H$10-'1D'!$H2)^2)</f>
-        <v>82.420497950159614</v>
+        <v>40.774137632465312</v>
       </c>
       <c r="J1">
         <f ca="1">SQRT(('1D'!$G$11-'1D'!$G2)^2+('1D'!$H$11-'1D'!$H2)^2)</f>
-        <v>85.222914677104058</v>
+        <v>90.254284818522606</v>
       </c>
       <c r="K1">
         <f>SQRT(('1D'!$G$12-'1D'!$G2)^2+('1D'!$H$12-'1D'!$H2)^2)</f>
@@ -2186,7 +2186,7 @@
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2">
         <f ca="1">SQRT(('1D'!$G$2-'1D'!$G3)^2+('1D'!$H$2-'1D'!$H3)^2)</f>
-        <v>114.99585725201707</v>
+        <v>77.070196691579525</v>
       </c>
       <c r="B2">
         <f ca="1">SQRT(('1D'!$G$3-'1D'!$G3)^2+('1D'!$H$3-'1D'!$H3)^2)</f>
@@ -2194,49 +2194,49 @@
       </c>
       <c r="C2">
         <f ca="1">SQRT(('1D'!$G$4-'1D'!$G3)^2+('1D'!$H$4-'1D'!$H3)^2)</f>
-        <v>78.96127671464312</v>
+        <v>163.06351233829531</v>
       </c>
       <c r="D2">
         <f ca="1">SQRT(('1D'!$G$5-'1D'!$G3)^2+('1D'!$H$5-'1D'!$H3)^2)</f>
-        <v>163.74754707188194</v>
+        <v>169.62390350215526</v>
       </c>
       <c r="E2">
         <f ca="1">SQRT(('1D'!$G$6-'1D'!$G3)^2+('1D'!$H$6-'1D'!$H3)^2)</f>
-        <v>191.13985755020911</v>
+        <v>66.464991673411717</v>
       </c>
       <c r="F2">
         <f ca="1">SQRT(('1D'!$G$7-'1D'!$G3)^2+('1D'!$H$7-'1D'!$H3)^2)</f>
-        <v>116.38531947550686</v>
+        <v>127.34677502087006</v>
       </c>
       <c r="G2">
         <f ca="1">SQRT(('1D'!$G$8-'1D'!$G3)^2+('1D'!$H$8-'1D'!$H3)^2)</f>
-        <v>165.53880071972611</v>
+        <v>19.569967765519582</v>
       </c>
       <c r="H2">
         <f ca="1">SQRT(('1D'!$G$9-'1D'!$G3)^2+('1D'!$H$9-'1D'!$H3)^2)</f>
-        <v>24.265808366468249</v>
+        <v>138.71317206926486</v>
       </c>
       <c r="I2">
         <f ca="1">SQRT(('1D'!$G$10-'1D'!$G3)^2+('1D'!$H$10-'1D'!$H3)^2)</f>
-        <v>193.09509220407489</v>
+        <v>45.571426917806498</v>
       </c>
       <c r="J2">
         <f ca="1">SQRT(('1D'!$G$11-'1D'!$G3)^2+('1D'!$H$11-'1D'!$H3)^2)</f>
-        <v>39.286835471413646</v>
+        <v>158.00206925549344</v>
       </c>
       <c r="K2">
         <f ca="1">SQRT(('1D'!$G$12-'1D'!$G3)^2+('1D'!$H$12-'1D'!$H3)^2)</f>
-        <v>114.99585725201707</v>
+        <v>77.070196691579525</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
         <f ca="1">SQRT(('1D'!$G$2-'1D'!$G4)^2+('1D'!$H$2-'1D'!$H4)^2)</f>
-        <v>46.621423924351035</v>
+        <v>86.228474975018003</v>
       </c>
       <c r="B3">
         <f ca="1">SQRT(('1D'!$G$3-'1D'!$G4)^2+('1D'!$H$3-'1D'!$H4)^2)</f>
-        <v>78.96127671464312</v>
+        <v>163.06351233829531</v>
       </c>
       <c r="C3">
         <f ca="1">SQRT(('1D'!$G$4-'1D'!$G4)^2+('1D'!$H$4-'1D'!$H4)^2)</f>
@@ -2244,49 +2244,49 @@
       </c>
       <c r="D3">
         <f ca="1">SQRT(('1D'!$G$5-'1D'!$G4)^2+('1D'!$H$5-'1D'!$H4)^2)</f>
-        <v>100.42723776300275</v>
+        <v>50.939749977255751</v>
       </c>
       <c r="E3">
         <f ca="1">SQRT(('1D'!$G$6-'1D'!$G4)^2+('1D'!$H$6-'1D'!$H4)^2)</f>
-        <v>117.71083851935725</v>
+        <v>158.0480265439611</v>
       </c>
       <c r="F3">
         <f ca="1">SQRT(('1D'!$G$7-'1D'!$G4)^2+('1D'!$H$7-'1D'!$H4)^2)</f>
-        <v>41.327896696585938</v>
+        <v>89.278816917363585</v>
       </c>
       <c r="G3">
         <f ca="1">SQRT(('1D'!$G$8-'1D'!$G4)^2+('1D'!$H$8-'1D'!$H4)^2)</f>
-        <v>130.40544486714012</v>
+        <v>180.54910542249578</v>
       </c>
       <c r="H3">
         <f ca="1">SQRT(('1D'!$G$9-'1D'!$G4)^2+('1D'!$H$9-'1D'!$H4)^2)</f>
-        <v>54.749222710507127</v>
+        <v>102.43923109277956</v>
       </c>
       <c r="I3">
         <f ca="1">SQRT(('1D'!$G$10-'1D'!$G4)^2+('1D'!$H$10-'1D'!$H4)^2)</f>
-        <v>115.3379581637119</v>
+        <v>122.00342116022956</v>
       </c>
       <c r="J3">
         <f ca="1">SQRT(('1D'!$G$11-'1D'!$G4)^2+('1D'!$H$11-'1D'!$H4)^2)</f>
-        <v>62.716531370308921</v>
+        <v>49.382870774156686</v>
       </c>
       <c r="K3">
         <f ca="1">SQRT(('1D'!$G$12-'1D'!$G4)^2+('1D'!$H$12-'1D'!$H4)^2)</f>
-        <v>46.621423924351035</v>
+        <v>86.228474975018003</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
         <f ca="1">SQRT(('1D'!$G$2-'1D'!$G5)^2+('1D'!$H$2-'1D'!$H5)^2)</f>
-        <v>116.26955329224484</v>
+        <v>101.28120332867017</v>
       </c>
       <c r="B4">
         <f ca="1">SQRT(('1D'!$G$3-'1D'!$G5)^2+('1D'!$H$3-'1D'!$H5)^2)</f>
-        <v>163.74754707188194</v>
+        <v>169.62390350215526</v>
       </c>
       <c r="C4">
         <f ca="1">SQRT(('1D'!$G$4-'1D'!$G5)^2+('1D'!$H$4-'1D'!$H5)^2)</f>
-        <v>100.42723776300275</v>
+        <v>50.939749977255751</v>
       </c>
       <c r="D4">
         <f ca="1">SQRT(('1D'!$G$5-'1D'!$G5)^2+('1D'!$H$5-'1D'!$H5)^2)</f>
@@ -2294,49 +2294,49 @@
       </c>
       <c r="E4">
         <f ca="1">SQRT(('1D'!$G$6-'1D'!$G5)^2+('1D'!$H$6-'1D'!$H5)^2)</f>
-        <v>135.54756796656562</v>
+        <v>183.60493127718289</v>
       </c>
       <c r="F4">
         <f ca="1">SQRT(('1D'!$G$7-'1D'!$G5)^2+('1D'!$H$7-'1D'!$H5)^2)</f>
-        <v>62.34214083447241</v>
+        <v>132.23025432332722</v>
       </c>
       <c r="G4">
         <f ca="1">SQRT(('1D'!$G$8-'1D'!$G5)^2+('1D'!$H$8-'1D'!$H5)^2)</f>
-        <v>206.93924476323943</v>
+        <v>183.83518199891705</v>
       </c>
       <c r="H4">
         <f ca="1">SQRT(('1D'!$G$9-'1D'!$G5)^2+('1D'!$H$9-'1D'!$H5)^2)</f>
-        <v>143.38300344341357</v>
+        <v>64.262039154209361</v>
       </c>
       <c r="I4">
         <f ca="1">SQRT(('1D'!$G$10-'1D'!$G5)^2+('1D'!$H$10-'1D'!$H5)^2)</f>
-        <v>111.17811177024906</v>
+        <v>124.2453779917729</v>
       </c>
       <c r="J4">
         <f ca="1">SQRT(('1D'!$G$11-'1D'!$G5)^2+('1D'!$H$11-'1D'!$H5)^2)</f>
-        <v>160.99749257172314</v>
+        <v>11.628054779943174</v>
       </c>
       <c r="K4">
         <f ca="1">SQRT(('1D'!$G$12-'1D'!$G5)^2+('1D'!$H$12-'1D'!$H5)^2)</f>
-        <v>116.26955329224484</v>
+        <v>101.28120332867017</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
         <f ca="1">SQRT(('1D'!$G$2-'1D'!$G6)^2+('1D'!$H$2-'1D'!$H6)^2)</f>
-        <v>76.203923464026403</v>
+        <v>83.393381167119912</v>
       </c>
       <c r="B5">
         <f ca="1">SQRT(('1D'!$G$3-'1D'!$G6)^2+('1D'!$H$3-'1D'!$H6)^2)</f>
-        <v>191.13985755020911</v>
+        <v>66.464991673411717</v>
       </c>
       <c r="C5">
         <f ca="1">SQRT(('1D'!$G$4-'1D'!$G6)^2+('1D'!$H$4-'1D'!$H6)^2)</f>
-        <v>117.71083851935725</v>
+        <v>158.0480265439611</v>
       </c>
       <c r="D5">
         <f ca="1">SQRT(('1D'!$G$5-'1D'!$G6)^2+('1D'!$H$5-'1D'!$H6)^2)</f>
-        <v>135.54756796656562</v>
+        <v>183.60493127718289</v>
       </c>
       <c r="E5">
         <f ca="1">SQRT(('1D'!$G$6-'1D'!$G6)^2+('1D'!$H$6-'1D'!$H6)^2)</f>
@@ -2344,49 +2344,49 @@
       </c>
       <c r="F5">
         <f ca="1">SQRT(('1D'!$G$7-'1D'!$G6)^2+('1D'!$H$7-'1D'!$H6)^2)</f>
-        <v>102.48478597509622</v>
+        <v>88.504384130791649</v>
       </c>
       <c r="G5">
         <f ca="1">SQRT(('1D'!$G$8-'1D'!$G6)^2+('1D'!$H$8-'1D'!$H6)^2)</f>
-        <v>106.53534080452064</v>
+        <v>81.355063885971461</v>
       </c>
       <c r="H5">
         <f ca="1">SQRT(('1D'!$G$9-'1D'!$G6)^2+('1D'!$H$9-'1D'!$H6)^2)</f>
-        <v>167.64204977331696</v>
+        <v>175.24770865090986</v>
       </c>
       <c r="I5">
         <f ca="1">SQRT(('1D'!$G$10-'1D'!$G6)^2+('1D'!$H$10-'1D'!$H6)^2)</f>
-        <v>30.116862915121306</v>
+        <v>84.322093841113414</v>
       </c>
       <c r="J5">
         <f ca="1">SQRT(('1D'!$G$11-'1D'!$G6)^2+('1D'!$H$11-'1D'!$H6)^2)</f>
-        <v>160.55304844658716</v>
+        <v>172.96312336919581</v>
       </c>
       <c r="K5">
         <f ca="1">SQRT(('1D'!$G$12-'1D'!$G6)^2+('1D'!$H$12-'1D'!$H6)^2)</f>
-        <v>76.203923464026403</v>
+        <v>83.393381167119912</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
         <f ca="1">SQRT(('1D'!$G$2-'1D'!$G7)^2+('1D'!$H$2-'1D'!$H7)^2)</f>
-        <v>56.683769309569037</v>
+        <v>71.499321996213652</v>
       </c>
       <c r="B6">
         <f ca="1">SQRT(('1D'!$G$3-'1D'!$G7)^2+('1D'!$H$3-'1D'!$H7)^2)</f>
-        <v>116.38531947550686</v>
+        <v>127.34677502087006</v>
       </c>
       <c r="C6">
         <f ca="1">SQRT(('1D'!$G$4-'1D'!$G7)^2+('1D'!$H$4-'1D'!$H7)^2)</f>
-        <v>41.327896696585938</v>
+        <v>89.278816917363585</v>
       </c>
       <c r="D6">
         <f ca="1">SQRT(('1D'!$G$5-'1D'!$G7)^2+('1D'!$H$5-'1D'!$H7)^2)</f>
-        <v>62.34214083447241</v>
+        <v>132.23025432332722</v>
       </c>
       <c r="E6">
         <f ca="1">SQRT(('1D'!$G$6-'1D'!$G7)^2+('1D'!$H$6-'1D'!$H7)^2)</f>
-        <v>102.48478597509622</v>
+        <v>88.504384130791649</v>
       </c>
       <c r="F6">
         <f ca="1">SQRT(('1D'!$G$7-'1D'!$G7)^2+('1D'!$H$7-'1D'!$H7)^2)</f>
@@ -2394,49 +2394,49 @@
       </c>
       <c r="G6">
         <f ca="1">SQRT(('1D'!$G$8-'1D'!$G7)^2+('1D'!$H$8-'1D'!$H7)^2)</f>
-        <v>149.19070815306961</v>
+        <v>146.85730623398712</v>
       </c>
       <c r="H6">
         <f ca="1">SQRT(('1D'!$G$9-'1D'!$G7)^2+('1D'!$H$9-'1D'!$H7)^2)</f>
-        <v>92.98383646656093</v>
+        <v>155.94764989662966</v>
       </c>
       <c r="I6">
         <f ca="1">SQRT(('1D'!$G$10-'1D'!$G7)^2+('1D'!$H$10-'1D'!$H7)^2)</f>
-        <v>90.201102392443829</v>
+        <v>107.8490699336766</v>
       </c>
       <c r="J6">
         <f ca="1">SQRT(('1D'!$G$11-'1D'!$G7)^2+('1D'!$H$11-'1D'!$H7)^2)</f>
-        <v>104.03686962578884</v>
+        <v>125.03548274864596</v>
       </c>
       <c r="K6">
         <f ca="1">SQRT(('1D'!$G$12-'1D'!$G7)^2+('1D'!$H$12-'1D'!$H7)^2)</f>
-        <v>56.683769309569037</v>
+        <v>71.499321996213652</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
         <f ca="1">SQRT(('1D'!$G$2-'1D'!$G8)^2+('1D'!$H$2-'1D'!$H8)^2)</f>
-        <v>92.539952774190567</v>
+        <v>95.174082489247652</v>
       </c>
       <c r="B7">
         <f ca="1">SQRT(('1D'!$G$3-'1D'!$G8)^2+('1D'!$H$3-'1D'!$H8)^2)</f>
-        <v>165.53880071972611</v>
+        <v>19.569967765519582</v>
       </c>
       <c r="C7">
         <f ca="1">SQRT(('1D'!$G$4-'1D'!$G8)^2+('1D'!$H$4-'1D'!$H8)^2)</f>
-        <v>130.40544486714012</v>
+        <v>180.54910542249578</v>
       </c>
       <c r="D7">
         <f ca="1">SQRT(('1D'!$G$5-'1D'!$G8)^2+('1D'!$H$5-'1D'!$H8)^2)</f>
-        <v>206.93924476323943</v>
+        <v>183.83518199891705</v>
       </c>
       <c r="E7">
         <f ca="1">SQRT(('1D'!$G$6-'1D'!$G8)^2+('1D'!$H$6-'1D'!$H8)^2)</f>
-        <v>106.53534080452064</v>
+        <v>81.355063885971461</v>
       </c>
       <c r="F7">
         <f ca="1">SQRT(('1D'!$G$7-'1D'!$G8)^2+('1D'!$H$7-'1D'!$H8)^2)</f>
-        <v>149.19070815306961</v>
+        <v>146.85730623398712</v>
       </c>
       <c r="G7">
         <f ca="1">SQRT(('1D'!$G$8-'1D'!$G8)^2+('1D'!$H$8-'1D'!$H8)^2)</f>
@@ -2444,49 +2444,49 @@
       </c>
       <c r="H7">
         <f ca="1">SQRT(('1D'!$G$9-'1D'!$G8)^2+('1D'!$H$9-'1D'!$H8)^2)</f>
-        <v>150.15027744280133</v>
+        <v>147.51604491094341</v>
       </c>
       <c r="I7">
         <f ca="1">SQRT(('1D'!$G$10-'1D'!$G8)^2+('1D'!$H$10-'1D'!$H8)^2)</f>
-        <v>133.26352503878698</v>
+        <v>60.017990495023767</v>
       </c>
       <c r="J7">
         <f ca="1">SQRT(('1D'!$G$11-'1D'!$G8)^2+('1D'!$H$11-'1D'!$H8)^2)</f>
-        <v>126.26353710526487</v>
+        <v>172.21949296270319</v>
       </c>
       <c r="K7">
         <f ca="1">SQRT(('1D'!$G$12-'1D'!$G8)^2+('1D'!$H$12-'1D'!$H8)^2)</f>
-        <v>92.539952774190567</v>
+        <v>95.174082489247652</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8">
         <f ca="1">SQRT(('1D'!$G$2-'1D'!$G9)^2+('1D'!$H$2-'1D'!$H9)^2)</f>
-        <v>91.729025308586586</v>
+        <v>96.248757426065623</v>
       </c>
       <c r="B8">
         <f ca="1">SQRT(('1D'!$G$3-'1D'!$G9)^2+('1D'!$H$3-'1D'!$H9)^2)</f>
-        <v>24.265808366468249</v>
+        <v>138.71317206926486</v>
       </c>
       <c r="C8">
         <f ca="1">SQRT(('1D'!$G$4-'1D'!$G9)^2+('1D'!$H$4-'1D'!$H9)^2)</f>
-        <v>54.749222710507127</v>
+        <v>102.43923109277956</v>
       </c>
       <c r="D8">
         <f ca="1">SQRT(('1D'!$G$5-'1D'!$G9)^2+('1D'!$H$5-'1D'!$H9)^2)</f>
-        <v>143.38300344341357</v>
+        <v>64.262039154209361</v>
       </c>
       <c r="E8">
         <f ca="1">SQRT(('1D'!$G$6-'1D'!$G9)^2+('1D'!$H$6-'1D'!$H9)^2)</f>
-        <v>167.64204977331696</v>
+        <v>175.24770865090986</v>
       </c>
       <c r="F8">
         <f ca="1">SQRT(('1D'!$G$7-'1D'!$G9)^2+('1D'!$H$7-'1D'!$H9)^2)</f>
-        <v>92.98383646656093</v>
+        <v>155.94764989662966</v>
       </c>
       <c r="G8">
         <f ca="1">SQRT(('1D'!$G$8-'1D'!$G9)^2+('1D'!$H$8-'1D'!$H9)^2)</f>
-        <v>150.15027744280133</v>
+        <v>147.51604491094341</v>
       </c>
       <c r="H8">
         <f ca="1">SQRT(('1D'!$G$9-'1D'!$G9)^2+('1D'!$H$9-'1D'!$H9)^2)</f>
@@ -2494,49 +2494,49 @@
       </c>
       <c r="I8">
         <f ca="1">SQRT(('1D'!$G$10-'1D'!$G9)^2+('1D'!$H$10-'1D'!$H9)^2)</f>
-        <v>168.91648762960446</v>
+        <v>95.946087053712574</v>
       </c>
       <c r="J8">
         <f ca="1">SQRT(('1D'!$G$11-'1D'!$G9)^2+('1D'!$H$11-'1D'!$H9)^2)</f>
-        <v>29.489059255894233</v>
+        <v>57.376541312022162</v>
       </c>
       <c r="K8">
         <f ca="1">SQRT(('1D'!$G$12-'1D'!$G9)^2+('1D'!$H$12-'1D'!$H9)^2)</f>
-        <v>91.729025308586586</v>
+        <v>96.248757426065623</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9">
         <f ca="1">SQRT(('1D'!$G$2-'1D'!$G10)^2+('1D'!$H$2-'1D'!$H10)^2)</f>
-        <v>82.420497950159614</v>
+        <v>40.774137632465312</v>
       </c>
       <c r="B9">
         <f ca="1">SQRT(('1D'!$G$3-'1D'!$G10)^2+('1D'!$H$3-'1D'!$H10)^2)</f>
-        <v>193.09509220407489</v>
+        <v>45.571426917806498</v>
       </c>
       <c r="C9">
         <f ca="1">SQRT(('1D'!$G$4-'1D'!$G10)^2+('1D'!$H$4-'1D'!$H10)^2)</f>
-        <v>115.3379581637119</v>
+        <v>122.00342116022956</v>
       </c>
       <c r="D9">
         <f ca="1">SQRT(('1D'!$G$5-'1D'!$G10)^2+('1D'!$H$5-'1D'!$H10)^2)</f>
-        <v>111.17811177024906</v>
+        <v>124.2453779917729</v>
       </c>
       <c r="E9">
         <f ca="1">SQRT(('1D'!$G$6-'1D'!$G10)^2+('1D'!$H$6-'1D'!$H10)^2)</f>
-        <v>30.116862915121306</v>
+        <v>84.322093841113414</v>
       </c>
       <c r="F9">
         <f ca="1">SQRT(('1D'!$G$7-'1D'!$G10)^2+('1D'!$H$7-'1D'!$H10)^2)</f>
-        <v>90.201102392443829</v>
+        <v>107.8490699336766</v>
       </c>
       <c r="G9">
         <f ca="1">SQRT(('1D'!$G$8-'1D'!$G10)^2+('1D'!$H$8-'1D'!$H10)^2)</f>
-        <v>133.26352503878698</v>
+        <v>60.017990495023767</v>
       </c>
       <c r="H9">
         <f ca="1">SQRT(('1D'!$G$9-'1D'!$G10)^2+('1D'!$H$9-'1D'!$H10)^2)</f>
-        <v>168.91648762960446</v>
+        <v>95.946087053712574</v>
       </c>
       <c r="I9">
         <f ca="1">SQRT(('1D'!$G$10-'1D'!$G10)^2+('1D'!$H$10-'1D'!$H10)^2)</f>
@@ -2544,49 +2544,49 @@
       </c>
       <c r="J9">
         <f ca="1">SQRT(('1D'!$G$11-'1D'!$G10)^2+('1D'!$H$11-'1D'!$H10)^2)</f>
-        <v>167.0699660490512</v>
+        <v>112.61737054717675</v>
       </c>
       <c r="K9">
         <f ca="1">SQRT(('1D'!$G$12-'1D'!$G10)^2+('1D'!$H$12-'1D'!$H10)^2)</f>
-        <v>82.420497950159614</v>
+        <v>40.774137632465312</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10">
         <f ca="1">SQRT(('1D'!$G$2-'1D'!$G11)^2+('1D'!$H$2-'1D'!$H11)^2)</f>
-        <v>85.222914677104058</v>
+        <v>90.254284818522606</v>
       </c>
       <c r="B10">
         <f ca="1">SQRT(('1D'!$G$3-'1D'!$G11)^2+('1D'!$H$3-'1D'!$H11)^2)</f>
-        <v>39.286835471413646</v>
+        <v>158.00206925549344</v>
       </c>
       <c r="C10">
         <f ca="1">SQRT(('1D'!$G$4-'1D'!$G11)^2+('1D'!$H$4-'1D'!$H11)^2)</f>
-        <v>62.716531370308921</v>
+        <v>49.382870774156686</v>
       </c>
       <c r="D10">
         <f ca="1">SQRT(('1D'!$G$5-'1D'!$G11)^2+('1D'!$H$5-'1D'!$H11)^2)</f>
-        <v>160.99749257172314</v>
+        <v>11.628054779943174</v>
       </c>
       <c r="E10">
         <f ca="1">SQRT(('1D'!$G$6-'1D'!$G11)^2+('1D'!$H$6-'1D'!$H11)^2)</f>
-        <v>160.55304844658716</v>
+        <v>172.96312336919581</v>
       </c>
       <c r="F10">
         <f ca="1">SQRT(('1D'!$G$7-'1D'!$G11)^2+('1D'!$H$7-'1D'!$H11)^2)</f>
-        <v>104.03686962578884</v>
+        <v>125.03548274864596</v>
       </c>
       <c r="G10">
         <f ca="1">SQRT(('1D'!$G$8-'1D'!$G11)^2+('1D'!$H$8-'1D'!$H11)^2)</f>
-        <v>126.26353710526487</v>
+        <v>172.21949296270319</v>
       </c>
       <c r="H10">
         <f ca="1">SQRT(('1D'!$G$9-'1D'!$G11)^2+('1D'!$H$9-'1D'!$H11)^2)</f>
-        <v>29.489059255894233</v>
+        <v>57.376541312022162</v>
       </c>
       <c r="I10">
         <f ca="1">SQRT(('1D'!$G$10-'1D'!$G11)^2+('1D'!$H$10-'1D'!$H11)^2)</f>
-        <v>167.0699660490512</v>
+        <v>112.61737054717675</v>
       </c>
       <c r="J10">
         <f ca="1">SQRT(('1D'!$G$11-'1D'!$G11)^2+('1D'!$H$11-'1D'!$H11)^2)</f>
@@ -2594,7 +2594,7 @@
       </c>
       <c r="K10">
         <f ca="1">SQRT(('1D'!$G$12-'1D'!$G11)^2+('1D'!$H$12-'1D'!$H11)^2)</f>
-        <v>85.222914677104058</v>
+        <v>90.254284818522606</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -2604,39 +2604,39 @@
       </c>
       <c r="B11">
         <f ca="1">SQRT(('1D'!$G$3-'1D'!$G12)^2+('1D'!$H$3-'1D'!$H12)^2)</f>
-        <v>114.99585725201707</v>
+        <v>77.070196691579525</v>
       </c>
       <c r="C11">
         <f ca="1">SQRT(('1D'!$G$4-'1D'!$G12)^2+('1D'!$H$4-'1D'!$H12)^2)</f>
-        <v>46.621423924351035</v>
+        <v>86.228474975018003</v>
       </c>
       <c r="D11">
         <f ca="1">SQRT(('1D'!$G$5-'1D'!$G12)^2+('1D'!$H$5-'1D'!$H12)^2)</f>
-        <v>116.26955329224484</v>
+        <v>101.28120332867017</v>
       </c>
       <c r="E11">
         <f ca="1">SQRT(('1D'!$G$6-'1D'!$G12)^2+('1D'!$H$6-'1D'!$H12)^2)</f>
-        <v>76.203923464026403</v>
+        <v>83.393381167119912</v>
       </c>
       <c r="F11">
         <f ca="1">SQRT(('1D'!$G$7-'1D'!$G12)^2+('1D'!$H$7-'1D'!$H12)^2)</f>
-        <v>56.683769309569037</v>
+        <v>71.499321996213652</v>
       </c>
       <c r="G11">
         <f ca="1">SQRT(('1D'!$G$8-'1D'!$G12)^2+('1D'!$H$8-'1D'!$H12)^2)</f>
-        <v>92.539952774190567</v>
+        <v>95.174082489247652</v>
       </c>
       <c r="H11">
         <f ca="1">SQRT(('1D'!$G$9-'1D'!$G12)^2+('1D'!$H$9-'1D'!$H12)^2)</f>
-        <v>91.729025308586586</v>
+        <v>96.248757426065623</v>
       </c>
       <c r="I11">
         <f ca="1">SQRT(('1D'!$G$10-'1D'!$G12)^2+('1D'!$H$10-'1D'!$H12)^2)</f>
-        <v>82.420497950159614</v>
+        <v>40.774137632465312</v>
       </c>
       <c r="J11">
         <f ca="1">SQRT(('1D'!$G$11-'1D'!$G12)^2+('1D'!$H$11-'1D'!$H12)^2)</f>
-        <v>85.222914677104058</v>
+        <v>90.254284818522606</v>
       </c>
       <c r="K11">
         <f>SQRT(('1D'!$G$12-'1D'!$G12)^2+('1D'!$H$12-'1D'!$H12)^2)</f>
@@ -2655,8 +2655,8 @@
   </sheetPr>
   <dimension ref="A1:Q17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2668,39 +2668,39 @@
       </c>
       <c r="B1">
         <f ca="1">Distances!B1/80</f>
-        <v>1.4374482156502135</v>
+        <v>0.96337745864474411</v>
       </c>
       <c r="C1">
         <f ca="1">Distances!C1/80</f>
-        <v>0.58276779905438791</v>
+        <v>1.077855937187725</v>
       </c>
       <c r="D1">
         <f ca="1">Distances!D1/80</f>
-        <v>1.4533694161530604</v>
+        <v>1.2660150416083771</v>
       </c>
       <c r="E1">
+        <f ca="1">Distances!E1/80</f>
+        <v>1.0424172645889989</v>
+      </c>
+      <c r="F1">
         <f ca="1">Distances!F1/80</f>
-        <v>0.70854711636961298</v>
-      </c>
-      <c r="F1">
-        <f ca="1">Distances!G1/80</f>
-        <v>1.156749409677382</v>
+        <v>0.89374152495267067</v>
       </c>
       <c r="G1">
         <f ca="1">Distances!G1/80</f>
-        <v>1.156749409677382</v>
+        <v>1.1896760311155956</v>
       </c>
       <c r="H1">
         <f ca="1">Distances!H1/80</f>
-        <v>1.1466128163573324</v>
+        <v>1.2031094678258203</v>
       </c>
       <c r="I1">
         <f ca="1">Distances!I1/80</f>
-        <v>1.0302562243769953</v>
+        <v>0.50967672040581635</v>
       </c>
       <c r="J1">
         <f ca="1">Distances!J1/80</f>
-        <v>1.0652864334638008</v>
+        <v>1.1281785602315326</v>
       </c>
       <c r="K1">
         <f>Distances!K1/80</f>
@@ -2734,7 +2734,7 @@
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2">
         <f ca="1">Distances!A2/80</f>
-        <v>1.4374482156502135</v>
+        <v>0.96337745864474411</v>
       </c>
       <c r="B2">
         <f ca="1">Distances!B2/80</f>
@@ -2742,39 +2742,39 @@
       </c>
       <c r="C2">
         <f ca="1">Distances!C2/80</f>
-        <v>0.98701595893303895</v>
+        <v>2.0382939042286914</v>
       </c>
       <c r="D2">
         <f ca="1">Distances!D2/80</f>
-        <v>2.0468443383985244</v>
+        <v>2.1202987937769406</v>
       </c>
       <c r="E2">
         <f ca="1">Distances!E2/80</f>
-        <v>2.3892482193776141</v>
+        <v>0.83081239591764644</v>
       </c>
       <c r="F2">
         <f ca="1">Distances!F2/80</f>
-        <v>1.4548164934438357</v>
+        <v>1.5918346877608758</v>
       </c>
       <c r="G2">
         <f ca="1">Distances!G2/80</f>
-        <v>2.0692350089965763</v>
+        <v>0.24462459706899478</v>
       </c>
       <c r="H2">
         <f ca="1">Distances!H2/80</f>
-        <v>0.30332260458085314</v>
+        <v>1.7339146508658108</v>
       </c>
       <c r="I2">
         <f ca="1">Distances!I2/80</f>
-        <v>2.413688652550936</v>
+        <v>0.56964283647258118</v>
       </c>
       <c r="J2">
         <f ca="1">Distances!J2/80</f>
-        <v>0.49108544339267057</v>
+        <v>1.9750258656936679</v>
       </c>
       <c r="K2">
         <f ca="1">Distances!K2/80</f>
-        <v>1.4374482156502135</v>
+        <v>0.96337745864474411</v>
       </c>
       <c r="L2">
         <f>Distances!L2/80</f>
@@ -2804,11 +2804,11 @@
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3">
         <f ca="1">Distances!A3/80</f>
-        <v>0.58276779905438791</v>
+        <v>1.077855937187725</v>
       </c>
       <c r="B3">
         <f ca="1">Distances!B3/80</f>
-        <v>0.98701595893303895</v>
+        <v>2.0382939042286914</v>
       </c>
       <c r="C3">
         <f ca="1">Distances!C3/80</f>
@@ -2816,35 +2816,35 @@
       </c>
       <c r="D3">
         <f ca="1">Distances!D3/80</f>
-        <v>1.2553404720375343</v>
+        <v>0.63674687471569691</v>
       </c>
       <c r="E3">
         <f ca="1">Distances!E3/80</f>
-        <v>1.4713854814919656</v>
+        <v>1.9756003317995137</v>
       </c>
       <c r="F3">
         <f ca="1">Distances!F3/80</f>
-        <v>0.51659870870732427</v>
+        <v>1.1159852114670448</v>
       </c>
       <c r="G3">
         <f ca="1">Distances!G3/80</f>
-        <v>1.6300680608392515</v>
+        <v>2.2568638177811975</v>
       </c>
       <c r="H3">
         <f ca="1">Distances!H3/80</f>
-        <v>0.6843652838813391</v>
+        <v>1.2804903886597445</v>
       </c>
       <c r="I3">
         <f ca="1">Distances!I3/80</f>
-        <v>1.4417244770463988</v>
+        <v>1.5250427645028695</v>
       </c>
       <c r="J3">
         <f ca="1">Distances!J3/80</f>
-        <v>0.78395664212886151</v>
+        <v>0.61728588467695855</v>
       </c>
       <c r="K3">
         <f ca="1">Distances!K3/80</f>
-        <v>0.58276779905438791</v>
+        <v>1.077855937187725</v>
       </c>
       <c r="L3">
         <f>Distances!L3/80</f>
@@ -2874,15 +2874,15 @@
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4">
         <f ca="1">Distances!A4/80</f>
-        <v>1.4533694161530604</v>
+        <v>1.2660150416083771</v>
       </c>
       <c r="B4">
         <f ca="1">Distances!B4/80</f>
-        <v>2.0468443383985244</v>
+        <v>2.1202987937769406</v>
       </c>
       <c r="C4">
         <f ca="1">Distances!C4/80</f>
-        <v>1.2553404720375343</v>
+        <v>0.63674687471569691</v>
       </c>
       <c r="D4">
         <f ca="1">Distances!D4/80</f>
@@ -2890,31 +2890,31 @@
       </c>
       <c r="E4">
         <f ca="1">Distances!E4/80</f>
-        <v>1.6943445995820703</v>
+        <v>2.2950616409647862</v>
       </c>
       <c r="F4">
         <f ca="1">Distances!F4/80</f>
-        <v>0.7792767604309051</v>
+        <v>1.6528781790415903</v>
       </c>
       <c r="G4">
         <f ca="1">Distances!G4/80</f>
-        <v>2.5867405595404929</v>
+        <v>2.297939774986463</v>
       </c>
       <c r="H4">
         <f ca="1">Distances!H4/80</f>
-        <v>1.7922875430426697</v>
+        <v>0.80327548942761706</v>
       </c>
       <c r="I4">
         <f ca="1">Distances!I4/80</f>
-        <v>1.3897263971281133</v>
+        <v>1.5530672248971613</v>
       </c>
       <c r="J4">
         <f ca="1">Distances!J4/80</f>
-        <v>2.0124686571465391</v>
+        <v>0.14535068474928967</v>
       </c>
       <c r="K4">
         <f ca="1">Distances!K4/80</f>
-        <v>1.4533694161530604</v>
+        <v>1.2660150416083771</v>
       </c>
       <c r="L4">
         <f>Distances!L4/80</f>
@@ -2944,19 +2944,19 @@
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5">
         <f ca="1">Distances!A5/80</f>
-        <v>0.95254904330033008</v>
+        <v>1.0424172645889989</v>
       </c>
       <c r="B5">
         <f ca="1">Distances!B5/80</f>
-        <v>2.3892482193776141</v>
+        <v>0.83081239591764644</v>
       </c>
       <c r="C5">
         <f ca="1">Distances!C5/80</f>
-        <v>1.4713854814919656</v>
+        <v>1.9756003317995137</v>
       </c>
       <c r="D5">
         <f ca="1">Distances!D5/80</f>
-        <v>1.6943445995820703</v>
+        <v>2.2950616409647862</v>
       </c>
       <c r="E5">
         <f ca="1">Distances!E5/80</f>
@@ -2964,27 +2964,27 @@
       </c>
       <c r="F5">
         <f ca="1">Distances!F5/80</f>
-        <v>1.2810598246887026</v>
+        <v>1.1063048016348955</v>
       </c>
       <c r="G5">
         <f ca="1">Distances!G5/80</f>
-        <v>1.3316917600565081</v>
+        <v>1.0169382985746434</v>
       </c>
       <c r="H5">
         <f ca="1">Distances!H5/80</f>
-        <v>2.0955256221664618</v>
+        <v>2.1905963581363732</v>
       </c>
       <c r="I5">
         <f ca="1">Distances!I5/80</f>
-        <v>0.37646078643901631</v>
+        <v>1.0540261730139178</v>
       </c>
       <c r="J5">
         <f ca="1">Distances!J5/80</f>
-        <v>2.0069131055823393</v>
+        <v>2.1620390421149476</v>
       </c>
       <c r="K5">
         <f ca="1">Distances!K5/80</f>
-        <v>0.95254904330033008</v>
+        <v>1.0424172645889989</v>
       </c>
       <c r="L5">
         <f>Distances!L5/80</f>
@@ -3014,23 +3014,23 @@
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6">
         <f ca="1">Distances!A6/80</f>
-        <v>0.70854711636961298</v>
+        <v>0.89374152495267067</v>
       </c>
       <c r="B6">
         <f ca="1">Distances!B6/80</f>
-        <v>1.4548164934438357</v>
+        <v>1.5918346877608758</v>
       </c>
       <c r="C6">
         <f ca="1">Distances!C6/80</f>
-        <v>0.51659870870732427</v>
+        <v>1.1159852114670448</v>
       </c>
       <c r="D6">
         <f ca="1">Distances!D6/80</f>
-        <v>0.7792767604309051</v>
+        <v>1.6528781790415903</v>
       </c>
       <c r="E6">
         <f ca="1">Distances!E6/80</f>
-        <v>1.2810598246887026</v>
+        <v>1.1063048016348955</v>
       </c>
       <c r="F6">
         <f ca="1">Distances!F6/80</f>
@@ -3038,23 +3038,23 @@
       </c>
       <c r="G6">
         <f ca="1">Distances!G6/80</f>
-        <v>1.8648838519133701</v>
+        <v>1.835716327924839</v>
       </c>
       <c r="H6">
         <f ca="1">Distances!H6/80</f>
-        <v>1.1622979558320117</v>
+        <v>1.9493456237078708</v>
       </c>
       <c r="I6">
         <f ca="1">Distances!I6/80</f>
-        <v>1.1275137799055479</v>
+        <v>1.3481133741709574</v>
       </c>
       <c r="J6">
         <f ca="1">Distances!J6/80</f>
-        <v>1.3004608703223606</v>
+        <v>1.5629435343580744</v>
       </c>
       <c r="K6">
         <f ca="1">Distances!K6/80</f>
-        <v>0.70854711636961298</v>
+        <v>0.89374152495267067</v>
       </c>
       <c r="L6">
         <f>Distances!L6/80</f>
@@ -3084,27 +3084,27 @@
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7">
         <f ca="1">Distances!A7/80</f>
-        <v>1.156749409677382</v>
+        <v>1.1896760311155956</v>
       </c>
       <c r="B7">
         <f ca="1">Distances!B7/80</f>
-        <v>2.0692350089965763</v>
+        <v>0.24462459706899478</v>
       </c>
       <c r="C7">
         <f ca="1">Distances!C7/80</f>
-        <v>1.6300680608392515</v>
+        <v>2.2568638177811975</v>
       </c>
       <c r="D7">
         <f ca="1">Distances!D7/80</f>
-        <v>2.5867405595404929</v>
+        <v>2.297939774986463</v>
       </c>
       <c r="E7">
         <f ca="1">Distances!E7/80</f>
-        <v>1.3316917600565081</v>
+        <v>1.0169382985746434</v>
       </c>
       <c r="F7">
         <f ca="1">Distances!F7/80</f>
-        <v>1.8648838519133701</v>
+        <v>1.835716327924839</v>
       </c>
       <c r="G7">
         <f ca="1">Distances!G7/80</f>
@@ -3112,19 +3112,19 @@
       </c>
       <c r="H7">
         <f ca="1">Distances!H7/80</f>
-        <v>1.8768784680350166</v>
+        <v>1.8439505613867926</v>
       </c>
       <c r="I7">
         <f ca="1">Distances!I7/80</f>
-        <v>1.6657940629848373</v>
+        <v>0.75022488118779707</v>
       </c>
       <c r="J7">
         <f ca="1">Distances!J7/80</f>
-        <v>1.5782942138158109</v>
+        <v>2.1527436620337896</v>
       </c>
       <c r="K7">
         <f ca="1">Distances!K7/80</f>
-        <v>1.156749409677382</v>
+        <v>1.1896760311155956</v>
       </c>
       <c r="L7">
         <f>Distances!L7/80</f>
@@ -3154,31 +3154,31 @@
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8">
         <f ca="1">Distances!A8/80</f>
-        <v>1.1466128163573324</v>
+        <v>1.2031094678258203</v>
       </c>
       <c r="B8">
         <f ca="1">Distances!B8/80</f>
-        <v>0.30332260458085314</v>
+        <v>1.7339146508658108</v>
       </c>
       <c r="C8">
         <f ca="1">Distances!C8/80</f>
-        <v>0.6843652838813391</v>
+        <v>1.2804903886597445</v>
       </c>
       <c r="D8">
         <f ca="1">Distances!D8/80</f>
-        <v>1.7922875430426697</v>
+        <v>0.80327548942761706</v>
       </c>
       <c r="E8">
         <f ca="1">Distances!E8/80</f>
-        <v>2.0955256221664618</v>
+        <v>2.1905963581363732</v>
       </c>
       <c r="F8">
         <f ca="1">Distances!F8/80</f>
-        <v>1.1622979558320117</v>
+        <v>1.9493456237078708</v>
       </c>
       <c r="G8">
         <f ca="1">Distances!G8/80</f>
-        <v>1.8768784680350166</v>
+        <v>1.8439505613867926</v>
       </c>
       <c r="H8">
         <f ca="1">Distances!H8/80</f>
@@ -3186,15 +3186,15 @@
       </c>
       <c r="I8">
         <f ca="1">Distances!I8/80</f>
-        <v>2.1114560953700559</v>
+        <v>1.1993260881714072</v>
       </c>
       <c r="J8">
         <f ca="1">Distances!J8/80</f>
-        <v>0.3686132406986779</v>
+        <v>0.71720676640027703</v>
       </c>
       <c r="K8">
         <f ca="1">Distances!K8/80</f>
-        <v>1.1466128163573324</v>
+        <v>1.2031094678258203</v>
       </c>
       <c r="L8">
         <f>Distances!L8/80</f>
@@ -3224,35 +3224,35 @@
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9">
         <f ca="1">Distances!A9/80</f>
-        <v>1.0302562243769953</v>
+        <v>0.50967672040581635</v>
       </c>
       <c r="B9">
         <f ca="1">Distances!B9/80</f>
-        <v>2.413688652550936</v>
+        <v>0.56964283647258118</v>
       </c>
       <c r="C9">
         <f ca="1">Distances!C9/80</f>
-        <v>1.4417244770463988</v>
+        <v>1.5250427645028695</v>
       </c>
       <c r="D9">
         <f ca="1">Distances!D9/80</f>
-        <v>1.3897263971281133</v>
+        <v>1.5530672248971613</v>
       </c>
       <c r="E9">
         <f ca="1">Distances!E9/80</f>
-        <v>0.37646078643901631</v>
+        <v>1.0540261730139178</v>
       </c>
       <c r="F9">
         <f ca="1">Distances!F9/80</f>
-        <v>1.1275137799055479</v>
+        <v>1.3481133741709574</v>
       </c>
       <c r="G9">
         <f ca="1">Distances!G9/80</f>
-        <v>1.6657940629848373</v>
+        <v>0.75022488118779707</v>
       </c>
       <c r="H9">
         <f ca="1">Distances!H9/80</f>
-        <v>2.1114560953700559</v>
+        <v>1.1993260881714072</v>
       </c>
       <c r="I9">
         <f ca="1">Distances!I9/80</f>
@@ -3260,11 +3260,11 @@
       </c>
       <c r="J9">
         <f ca="1">Distances!J9/80</f>
-        <v>2.0883745756131402</v>
+        <v>1.4077171318397093</v>
       </c>
       <c r="K9">
         <f ca="1">Distances!K9/80</f>
-        <v>1.0302562243769953</v>
+        <v>0.50967672040581635</v>
       </c>
       <c r="L9">
         <f>Distances!L9/80</f>
@@ -3294,39 +3294,39 @@
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10">
         <f ca="1">Distances!A10/80</f>
-        <v>1.0652864334638008</v>
+        <v>1.1281785602315326</v>
       </c>
       <c r="B10">
         <f ca="1">Distances!B10/80</f>
-        <v>0.49108544339267057</v>
+        <v>1.9750258656936679</v>
       </c>
       <c r="C10">
         <f ca="1">Distances!C10/80</f>
-        <v>0.78395664212886151</v>
+        <v>0.61728588467695855</v>
       </c>
       <c r="D10">
         <f ca="1">Distances!D10/80</f>
-        <v>2.0124686571465391</v>
+        <v>0.14535068474928967</v>
       </c>
       <c r="E10">
         <f ca="1">Distances!E10/80</f>
-        <v>2.0069131055823393</v>
+        <v>2.1620390421149476</v>
       </c>
       <c r="F10">
         <f ca="1">Distances!F10/80</f>
-        <v>1.3004608703223606</v>
+        <v>1.5629435343580744</v>
       </c>
       <c r="G10">
         <f ca="1">Distances!G10/80</f>
-        <v>1.5782942138158109</v>
+        <v>2.1527436620337896</v>
       </c>
       <c r="H10">
         <f ca="1">Distances!H10/80</f>
-        <v>0.3686132406986779</v>
+        <v>0.71720676640027703</v>
       </c>
       <c r="I10">
         <f ca="1">Distances!I10/80</f>
-        <v>2.0883745756131402</v>
+        <v>1.4077171318397093</v>
       </c>
       <c r="J10">
         <f ca="1">Distances!J10/80</f>
@@ -3334,7 +3334,7 @@
       </c>
       <c r="K10">
         <f ca="1">Distances!K10/80</f>
-        <v>1.0652864334638008</v>
+        <v>1.1281785602315326</v>
       </c>
       <c r="L10">
         <f>Distances!L10/80</f>
@@ -3368,39 +3368,39 @@
       </c>
       <c r="B11">
         <f ca="1">Distances!B11/80</f>
-        <v>1.4374482156502135</v>
+        <v>0.96337745864474411</v>
       </c>
       <c r="C11">
         <f ca="1">Distances!C11/80</f>
-        <v>0.58276779905438791</v>
+        <v>1.077855937187725</v>
       </c>
       <c r="D11">
         <f ca="1">Distances!D11/80</f>
-        <v>1.4533694161530604</v>
+        <v>1.2660150416083771</v>
       </c>
       <c r="E11">
         <f ca="1">Distances!E11/80</f>
-        <v>0.95254904330033008</v>
+        <v>1.0424172645889989</v>
       </c>
       <c r="F11">
         <f ca="1">Distances!F11/80</f>
-        <v>0.70854711636961298</v>
+        <v>0.89374152495267067</v>
       </c>
       <c r="G11">
         <f ca="1">Distances!G11/80</f>
-        <v>1.156749409677382</v>
+        <v>1.1896760311155956</v>
       </c>
       <c r="H11">
         <f ca="1">Distances!H11/80</f>
-        <v>1.1466128163573324</v>
+        <v>1.2031094678258203</v>
       </c>
       <c r="I11">
         <f ca="1">Distances!I11/80</f>
-        <v>1.0302562243769953</v>
+        <v>0.50967672040581635</v>
       </c>
       <c r="J11">
         <f ca="1">Distances!J11/80</f>
-        <v>1.0652864334638008</v>
+        <v>1.1281785602315326</v>
       </c>
       <c r="K11">
         <f>Distances!K11/80</f>
